--- a/Practicum/Third/Test_mob_api.xlsx
+++ b/Practicum/Third/Test_mob_api.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Practicum\Third\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Prac\WirmanJO\Practicum\Third\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BFAF9F-5EDC-4F4A-B41B-EDE2611E8733}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511C96D4-02F6-468B-87AC-50BA3605EF2A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1208,35 +1208,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1244,34 +1238,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1280,14 +1266,28 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5258,7 +5258,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="102" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="80"/>
@@ -5291,19 +5291,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
     </row>
     <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="97">
+      <c r="A5" s="95">
         <v>1</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="92" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -5312,37 +5312,37 @@
       <c r="D5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="104" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="29" t="s">
         <v>65</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="82"/>
+      <c r="E6" s="87"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="29" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="83"/>
+      <c r="E7" s="88"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97">
+      <c r="A8" s="95">
         <v>2</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="96" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="49" t="s">
@@ -5351,35 +5351,35 @@
       <c r="D8" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="81"/>
+      <c r="E8" s="93"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="82"/>
+      <c r="E9" s="87"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="49" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="83"/>
+      <c r="E10" s="88"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="97">
+      <c r="A11" s="95">
         <v>3</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="96" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="49" t="s">
@@ -5388,35 +5388,35 @@
       <c r="D11" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="81"/>
+      <c r="E11" s="93"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="82"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="82"/>
+      <c r="E12" s="87"/>
     </row>
     <row r="13" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="53" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="E13" s="88"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="97">
+      <c r="A14" s="95">
         <v>4</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="96" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="49" t="s">
@@ -5425,35 +5425,35 @@
       <c r="D14" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="81"/>
+      <c r="E14" s="93"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="82"/>
+      <c r="E15" s="87"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="53" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="88"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97">
+      <c r="A17" s="95">
         <v>5</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="96" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="49" t="s">
@@ -5462,35 +5462,35 @@
       <c r="D17" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="81"/>
+      <c r="E17" s="93"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D18" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="82"/>
+      <c r="E18" s="87"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="53" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="88"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97">
+      <c r="A20" s="95">
         <v>6</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="96" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="49" t="s">
@@ -5499,66 +5499,66 @@
       <c r="D20" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="81"/>
+      <c r="E20" s="93"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D21" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="82"/>
+      <c r="E21" s="87"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="53" t="s">
         <v>69</v>
       </c>
       <c r="D22" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="83"/>
+      <c r="E22" s="88"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="97">
+      <c r="A23" s="95">
         <v>7</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="100" t="s">
+      <c r="D23" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="94" t="s">
+      <c r="E23" s="89" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="97">
-        <v>8</v>
-      </c>
-      <c r="B26" s="86" t="s">
+      <c r="A26" s="95">
+        <v>8</v>
+      </c>
+      <c r="B26" s="96" t="s">
         <v>79</v>
       </c>
       <c r="C26" s="49" t="s">
@@ -5567,35 +5567,35 @@
       <c r="D26" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="81"/>
+      <c r="E26" s="93"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="82"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="82"/>
+      <c r="E27" s="87"/>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="B28" s="83"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="53" t="s">
         <v>69</v>
       </c>
       <c r="D28" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="83"/>
+      <c r="E28" s="88"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="97">
+      <c r="A29" s="95">
         <v>9</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="96" t="s">
         <v>80</v>
       </c>
       <c r="C29" s="49" t="s">
@@ -5604,35 +5604,35 @@
       <c r="D29" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="81"/>
+      <c r="E29" s="93"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D30" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="82"/>
+      <c r="E30" s="87"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="83"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="49" t="s">
         <v>81</v>
       </c>
       <c r="D31" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="83"/>
+      <c r="E31" s="88"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="97">
+      <c r="A32" s="95">
         <v>10</v>
       </c>
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="96" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="49" t="s">
@@ -5641,33 +5641,33 @@
       <c r="D32" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="81"/>
+      <c r="E32" s="93"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="82"/>
+      <c r="E33" s="87"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
-      <c r="B34" s="83"/>
+      <c r="A34" s="88"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="49" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="83"/>
+      <c r="E34" s="88"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
-      <c r="B35" s="96" t="s">
+      <c r="A35" s="95"/>
+      <c r="B35" s="92" t="s">
         <v>84</v>
       </c>
       <c r="C35" s="49" t="s">
@@ -5676,62 +5676,62 @@
       <c r="D35" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="81"/>
+      <c r="E35" s="93"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="82"/>
+      <c r="E36" s="87"/>
     </row>
     <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="83"/>
+      <c r="A37" s="88"/>
+      <c r="B37" s="88"/>
       <c r="C37" s="53" t="s">
         <v>86</v>
       </c>
       <c r="D37" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="83"/>
+      <c r="E37" s="88"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="97"/>
-      <c r="B38" s="96" t="s">
+      <c r="A38" s="95"/>
+      <c r="B38" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="111" t="s">
+      <c r="D38" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="94" t="s">
+      <c r="E38" s="89" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
+      <c r="A40" s="88"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="97"/>
-      <c r="B41" s="96" t="s">
+      <c r="A41" s="95"/>
+      <c r="B41" s="92" t="s">
         <v>89</v>
       </c>
       <c r="C41" s="49" t="s">
@@ -5740,33 +5740,33 @@
       <c r="D41" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="81"/>
+      <c r="E41" s="93"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
+      <c r="A42" s="87"/>
+      <c r="B42" s="87"/>
       <c r="C42" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D42" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="82"/>
+      <c r="E42" s="87"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="83"/>
+      <c r="A43" s="88"/>
+      <c r="B43" s="88"/>
       <c r="C43" s="49" t="s">
         <v>90</v>
       </c>
       <c r="D43" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="83"/>
+      <c r="E43" s="88"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="97"/>
-      <c r="B44" s="96" t="s">
+      <c r="A44" s="95"/>
+      <c r="B44" s="92" t="s">
         <v>91</v>
       </c>
       <c r="C44" s="49" t="s">
@@ -5775,33 +5775,33 @@
       <c r="D44" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="81"/>
+      <c r="E44" s="93"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
-      <c r="B45" s="82"/>
+      <c r="A45" s="87"/>
+      <c r="B45" s="87"/>
       <c r="C45" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D45" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="82"/>
+      <c r="E45" s="87"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
-      <c r="B46" s="83"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="49" t="s">
         <v>90</v>
       </c>
       <c r="D46" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="83"/>
+      <c r="E46" s="88"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="97"/>
-      <c r="B47" s="96" t="s">
+      <c r="A47" s="95"/>
+      <c r="B47" s="92" t="s">
         <v>92</v>
       </c>
       <c r="C47" s="49" t="s">
@@ -5810,33 +5810,33 @@
       <c r="D47" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="81"/>
+      <c r="E47" s="93"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82"/>
+      <c r="A48" s="87"/>
+      <c r="B48" s="87"/>
       <c r="C48" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D48" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="82"/>
+      <c r="E48" s="87"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
-      <c r="B49" s="83"/>
+      <c r="A49" s="88"/>
+      <c r="B49" s="88"/>
       <c r="C49" s="49" t="s">
         <v>90</v>
       </c>
       <c r="D49" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="83"/>
+      <c r="E49" s="88"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="97"/>
-      <c r="B50" s="96" t="s">
+      <c r="A50" s="95"/>
+      <c r="B50" s="92" t="s">
         <v>93</v>
       </c>
       <c r="C50" s="49" t="s">
@@ -5845,33 +5845,33 @@
       <c r="D50" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="81"/>
+      <c r="E50" s="93"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82"/>
+      <c r="A51" s="87"/>
+      <c r="B51" s="87"/>
       <c r="C51" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D51" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="82"/>
+      <c r="E51" s="87"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
-      <c r="B52" s="83"/>
+      <c r="A52" s="88"/>
+      <c r="B52" s="88"/>
       <c r="C52" s="49" t="s">
         <v>90</v>
       </c>
       <c r="D52" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="83"/>
+      <c r="E52" s="88"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="97"/>
-      <c r="B53" s="96" t="s">
+      <c r="A53" s="95"/>
+      <c r="B53" s="92" t="s">
         <v>95</v>
       </c>
       <c r="C53" s="49" t="s">
@@ -5880,33 +5880,33 @@
       <c r="D53" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="81"/>
+      <c r="E53" s="93"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
-      <c r="B54" s="82"/>
+      <c r="A54" s="87"/>
+      <c r="B54" s="87"/>
       <c r="C54" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="82"/>
+      <c r="E54" s="87"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="83"/>
-      <c r="B55" s="83"/>
+      <c r="A55" s="88"/>
+      <c r="B55" s="88"/>
       <c r="C55" s="49" t="s">
         <v>90</v>
       </c>
       <c r="D55" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="83"/>
+      <c r="E55" s="88"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="97"/>
-      <c r="B56" s="96" t="s">
+      <c r="A56" s="95"/>
+      <c r="B56" s="92" t="s">
         <v>96</v>
       </c>
       <c r="C56" s="49" t="s">
@@ -5915,33 +5915,33 @@
       <c r="D56" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="81"/>
+      <c r="E56" s="93"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="82"/>
-      <c r="B57" s="82"/>
+      <c r="A57" s="87"/>
+      <c r="B57" s="87"/>
       <c r="C57" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D57" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="82"/>
+      <c r="E57" s="87"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
-      <c r="B58" s="83"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="88"/>
       <c r="C58" s="49" t="s">
         <v>90</v>
       </c>
       <c r="D58" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="83"/>
+      <c r="E58" s="88"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="97"/>
-      <c r="B59" s="96" t="s">
+      <c r="A59" s="95"/>
+      <c r="B59" s="92" t="s">
         <v>97</v>
       </c>
       <c r="C59" s="49" t="s">
@@ -5950,44 +5950,44 @@
       <c r="D59" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="81"/>
+      <c r="E59" s="93"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="82"/>
-      <c r="B60" s="82"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="87"/>
       <c r="C60" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D60" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="82"/>
+      <c r="E60" s="87"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="83"/>
-      <c r="B61" s="83"/>
+      <c r="A61" s="88"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="49" t="s">
         <v>90</v>
       </c>
       <c r="D61" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="83"/>
+      <c r="E61" s="88"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="88" t="s">
+      <c r="A62" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="89"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="90"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="99"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="97">
+      <c r="A63" s="95">
         <v>11</v>
       </c>
-      <c r="B63" s="86" t="s">
+      <c r="B63" s="96" t="s">
         <v>99</v>
       </c>
       <c r="C63" s="49" t="s">
@@ -5996,35 +5996,35 @@
       <c r="D63" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="81"/>
+      <c r="E63" s="93"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="82"/>
-      <c r="B64" s="82"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="87"/>
       <c r="C64" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D64" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="82"/>
+      <c r="E64" s="87"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="83"/>
-      <c r="B65" s="83"/>
+      <c r="A65" s="88"/>
+      <c r="B65" s="88"/>
       <c r="C65" s="53" t="s">
         <v>100</v>
       </c>
       <c r="D65" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="83"/>
+      <c r="E65" s="88"/>
     </row>
     <row r="66" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="97">
+      <c r="A66" s="95">
         <v>12</v>
       </c>
-      <c r="B66" s="86" t="s">
+      <c r="B66" s="96" t="s">
         <v>101</v>
       </c>
       <c r="C66" s="49" t="s">
@@ -6033,44 +6033,44 @@
       <c r="D66" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="81"/>
+      <c r="E66" s="93"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="82"/>
-      <c r="B67" s="82"/>
+      <c r="A67" s="87"/>
+      <c r="B67" s="87"/>
       <c r="C67" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D67" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="82"/>
+      <c r="E67" s="87"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="83"/>
-      <c r="B68" s="83"/>
+      <c r="A68" s="88"/>
+      <c r="B68" s="88"/>
       <c r="C68" s="53" t="s">
         <v>102</v>
       </c>
       <c r="D68" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="83"/>
+      <c r="E68" s="88"/>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="88" t="s">
+      <c r="A69" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="89"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="90"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="98"/>
+      <c r="E69" s="99"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="97">
+      <c r="A70" s="95">
         <v>13</v>
       </c>
-      <c r="B70" s="86" t="s">
+      <c r="B70" s="96" t="s">
         <v>104</v>
       </c>
       <c r="C70" s="49" t="s">
@@ -6079,37 +6079,37 @@
       <c r="D70" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="85" t="s">
+      <c r="E70" s="100" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="82"/>
-      <c r="B71" s="82"/>
+      <c r="A71" s="87"/>
+      <c r="B71" s="87"/>
       <c r="C71" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D71" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="82"/>
+      <c r="E71" s="87"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="83"/>
-      <c r="B72" s="83"/>
+      <c r="A72" s="88"/>
+      <c r="B72" s="88"/>
       <c r="C72" s="53" t="s">
         <v>106</v>
       </c>
       <c r="D72" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="83"/>
+      <c r="E72" s="88"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="97">
+      <c r="A73" s="95">
         <v>14</v>
       </c>
-      <c r="B73" s="86" t="s">
+      <c r="B73" s="96" t="s">
         <v>107</v>
       </c>
       <c r="C73" s="49" t="s">
@@ -6118,44 +6118,44 @@
       <c r="D73" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="81"/>
+      <c r="E73" s="93"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="82"/>
-      <c r="B74" s="82"/>
+      <c r="A74" s="87"/>
+      <c r="B74" s="87"/>
       <c r="C74" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D74" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="82"/>
+      <c r="E74" s="87"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="83"/>
-      <c r="B75" s="83"/>
+      <c r="A75" s="88"/>
+      <c r="B75" s="88"/>
       <c r="C75" s="53" t="s">
         <v>108</v>
       </c>
       <c r="D75" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="83"/>
+      <c r="E75" s="88"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="88" t="s">
+      <c r="A76" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="B76" s="89"/>
-      <c r="C76" s="89"/>
-      <c r="D76" s="89"/>
-      <c r="E76" s="90"/>
+      <c r="B76" s="98"/>
+      <c r="C76" s="98"/>
+      <c r="D76" s="98"/>
+      <c r="E76" s="99"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="97">
+      <c r="A77" s="95">
         <v>15</v>
       </c>
-      <c r="B77" s="86" t="s">
+      <c r="B77" s="96" t="s">
         <v>110</v>
       </c>
       <c r="C77" s="49" t="s">
@@ -6164,35 +6164,35 @@
       <c r="D77" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="81"/>
+      <c r="E77" s="93"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="82"/>
-      <c r="B78" s="82"/>
+      <c r="A78" s="87"/>
+      <c r="B78" s="87"/>
       <c r="C78" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D78" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="82"/>
+      <c r="E78" s="87"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="83"/>
-      <c r="B79" s="83"/>
+      <c r="A79" s="88"/>
+      <c r="B79" s="88"/>
       <c r="C79" s="53" t="s">
         <v>111</v>
       </c>
       <c r="D79" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="83"/>
+      <c r="E79" s="88"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="97">
+      <c r="A80" s="95">
         <v>16</v>
       </c>
-      <c r="B80" s="86" t="s">
+      <c r="B80" s="96" t="s">
         <v>112</v>
       </c>
       <c r="C80" s="49" t="s">
@@ -6201,35 +6201,35 @@
       <c r="D80" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="81"/>
+      <c r="E80" s="93"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="82"/>
-      <c r="B81" s="82"/>
+      <c r="A81" s="87"/>
+      <c r="B81" s="87"/>
       <c r="C81" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D81" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="82"/>
+      <c r="E81" s="87"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="83"/>
-      <c r="B82" s="83"/>
+      <c r="A82" s="88"/>
+      <c r="B82" s="88"/>
       <c r="C82" s="53" t="s">
         <v>113</v>
       </c>
       <c r="D82" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="83"/>
+      <c r="E82" s="88"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="97">
+      <c r="A83" s="95">
         <v>17</v>
       </c>
-      <c r="B83" s="86" t="s">
+      <c r="B83" s="96" t="s">
         <v>114</v>
       </c>
       <c r="C83" s="49" t="s">
@@ -6238,35 +6238,35 @@
       <c r="D83" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="81"/>
+      <c r="E83" s="93"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="82"/>
-      <c r="B84" s="82"/>
+      <c r="A84" s="87"/>
+      <c r="B84" s="87"/>
       <c r="C84" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D84" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E84" s="82"/>
+      <c r="E84" s="87"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="83"/>
-      <c r="B85" s="83"/>
+      <c r="A85" s="88"/>
+      <c r="B85" s="88"/>
       <c r="C85" s="53" t="s">
         <v>115</v>
       </c>
       <c r="D85" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="83"/>
+      <c r="E85" s="88"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="97">
+      <c r="A86" s="95">
         <v>18</v>
       </c>
-      <c r="B86" s="86" t="s">
+      <c r="B86" s="96" t="s">
         <v>116</v>
       </c>
       <c r="C86" s="49" t="s">
@@ -6275,35 +6275,35 @@
       <c r="D86" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="81"/>
+      <c r="E86" s="93"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="82"/>
-      <c r="B87" s="82"/>
+      <c r="A87" s="87"/>
+      <c r="B87" s="87"/>
       <c r="C87" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D87" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="82"/>
+      <c r="E87" s="87"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="83"/>
-      <c r="B88" s="83"/>
+      <c r="A88" s="88"/>
+      <c r="B88" s="88"/>
       <c r="C88" s="53" t="s">
         <v>117</v>
       </c>
       <c r="D88" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="83"/>
+      <c r="E88" s="88"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="97">
+      <c r="A89" s="95">
         <v>19</v>
       </c>
-      <c r="B89" s="86" t="s">
+      <c r="B89" s="96" t="s">
         <v>118</v>
       </c>
       <c r="C89" s="49" t="s">
@@ -6312,35 +6312,35 @@
       <c r="D89" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="81"/>
+      <c r="E89" s="93"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="82"/>
-      <c r="B90" s="82"/>
+      <c r="A90" s="87"/>
+      <c r="B90" s="87"/>
       <c r="C90" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D90" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="82"/>
+      <c r="E90" s="87"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="83"/>
-      <c r="B91" s="83"/>
+      <c r="A91" s="88"/>
+      <c r="B91" s="88"/>
       <c r="C91" s="53" t="s">
         <v>119</v>
       </c>
       <c r="D91" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="83"/>
+      <c r="E91" s="88"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="95">
+      <c r="A92" s="91">
         <v>20</v>
       </c>
-      <c r="B92" s="96" t="s">
+      <c r="B92" s="92" t="s">
         <v>120</v>
       </c>
       <c r="C92" s="29" t="s">
@@ -6349,35 +6349,35 @@
       <c r="D92" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="84"/>
+      <c r="E92" s="109"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="82"/>
-      <c r="B93" s="82"/>
+      <c r="A93" s="87"/>
+      <c r="B93" s="87"/>
       <c r="C93" s="29" t="s">
         <v>65</v>
       </c>
       <c r="D93" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E93" s="82"/>
+      <c r="E93" s="87"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="83"/>
-      <c r="B94" s="83"/>
+      <c r="A94" s="88"/>
+      <c r="B94" s="88"/>
       <c r="C94" s="14" t="s">
         <v>121</v>
       </c>
       <c r="D94" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="83"/>
+      <c r="E94" s="88"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="97">
+      <c r="A95" s="95">
         <v>21</v>
       </c>
-      <c r="B95" s="86" t="s">
+      <c r="B95" s="96" t="s">
         <v>122</v>
       </c>
       <c r="C95" s="49" t="s">
@@ -6386,35 +6386,35 @@
       <c r="D95" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="81"/>
+      <c r="E95" s="93"/>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="82"/>
-      <c r="B96" s="82"/>
+      <c r="A96" s="87"/>
+      <c r="B96" s="87"/>
       <c r="C96" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D96" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="82"/>
+      <c r="E96" s="87"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="83"/>
-      <c r="B97" s="83"/>
+      <c r="A97" s="88"/>
+      <c r="B97" s="88"/>
       <c r="C97" s="53" t="s">
         <v>119</v>
       </c>
       <c r="D97" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="83"/>
+      <c r="E97" s="88"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="97">
+      <c r="A98" s="95">
         <v>22</v>
       </c>
-      <c r="B98" s="86" t="s">
+      <c r="B98" s="96" t="s">
         <v>123</v>
       </c>
       <c r="C98" s="49" t="s">
@@ -6423,35 +6423,35 @@
       <c r="D98" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="81"/>
+      <c r="E98" s="93"/>
     </row>
     <row r="99" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="82"/>
-      <c r="B99" s="82"/>
+      <c r="A99" s="87"/>
+      <c r="B99" s="87"/>
       <c r="C99" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D99" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="82"/>
+      <c r="E99" s="87"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="83"/>
-      <c r="B100" s="83"/>
+      <c r="A100" s="88"/>
+      <c r="B100" s="88"/>
       <c r="C100" s="53" t="s">
         <v>119</v>
       </c>
       <c r="D100" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="83"/>
+      <c r="E100" s="88"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="97">
+      <c r="A101" s="95">
         <v>23</v>
       </c>
-      <c r="B101" s="86" t="s">
+      <c r="B101" s="96" t="s">
         <v>124</v>
       </c>
       <c r="C101" s="49" t="s">
@@ -6460,35 +6460,35 @@
       <c r="D101" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="81"/>
+      <c r="E101" s="93"/>
     </row>
     <row r="102" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="82"/>
-      <c r="B102" s="82"/>
+      <c r="A102" s="87"/>
+      <c r="B102" s="87"/>
       <c r="C102" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D102" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="82"/>
+      <c r="E102" s="87"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="83"/>
-      <c r="B103" s="83"/>
+      <c r="A103" s="88"/>
+      <c r="B103" s="88"/>
       <c r="C103" s="53" t="s">
         <v>119</v>
       </c>
       <c r="D103" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E103" s="83"/>
+      <c r="E103" s="88"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="97">
+      <c r="A104" s="95">
         <v>24</v>
       </c>
-      <c r="B104" s="86" t="s">
+      <c r="B104" s="96" t="s">
         <v>125</v>
       </c>
       <c r="C104" s="49" t="s">
@@ -6497,35 +6497,35 @@
       <c r="D104" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E104" s="81"/>
+      <c r="E104" s="93"/>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="82"/>
-      <c r="B105" s="82"/>
+      <c r="A105" s="87"/>
+      <c r="B105" s="87"/>
       <c r="C105" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D105" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="82"/>
+      <c r="E105" s="87"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="83"/>
-      <c r="B106" s="83"/>
+      <c r="A106" s="88"/>
+      <c r="B106" s="88"/>
       <c r="C106" s="53" t="s">
         <v>119</v>
       </c>
       <c r="D106" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="83"/>
+      <c r="E106" s="88"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="97">
+      <c r="A107" s="95">
         <v>25</v>
       </c>
-      <c r="B107" s="86" t="s">
+      <c r="B107" s="96" t="s">
         <v>126</v>
       </c>
       <c r="C107" s="49" t="s">
@@ -6534,35 +6534,35 @@
       <c r="D107" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="81"/>
+      <c r="E107" s="93"/>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="82"/>
-      <c r="B108" s="82"/>
+      <c r="A108" s="87"/>
+      <c r="B108" s="87"/>
       <c r="C108" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D108" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="82"/>
+      <c r="E108" s="87"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="83"/>
-      <c r="B109" s="83"/>
+      <c r="A109" s="88"/>
+      <c r="B109" s="88"/>
       <c r="C109" s="53" t="s">
         <v>119</v>
       </c>
       <c r="D109" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E109" s="83"/>
+      <c r="E109" s="88"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="97">
+      <c r="A110" s="95">
         <v>26</v>
       </c>
-      <c r="B110" s="86" t="s">
+      <c r="B110" s="96" t="s">
         <v>127</v>
       </c>
       <c r="C110" s="54" t="s">
@@ -6571,33 +6571,33 @@
       <c r="D110" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="85" t="s">
+      <c r="E110" s="100" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="82"/>
-      <c r="B111" s="82"/>
-      <c r="C111" s="86" t="s">
+      <c r="A111" s="87"/>
+      <c r="B111" s="87"/>
+      <c r="C111" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="D111" s="87" t="s">
+      <c r="D111" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="82"/>
+      <c r="E111" s="87"/>
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="83"/>
-      <c r="B112" s="83"/>
-      <c r="C112" s="83"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="83"/>
+      <c r="A112" s="88"/>
+      <c r="B112" s="88"/>
+      <c r="C112" s="88"/>
+      <c r="D112" s="88"/>
+      <c r="E112" s="88"/>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="97">
+      <c r="A113" s="95">
         <v>27</v>
       </c>
-      <c r="B113" s="96" t="s">
+      <c r="B113" s="92" t="s">
         <v>129</v>
       </c>
       <c r="C113" s="49" t="s">
@@ -6606,36 +6606,36 @@
       <c r="D113" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E113" s="81"/>
+      <c r="E113" s="93"/>
       <c r="F113" s="44"/>
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="82"/>
-      <c r="B114" s="82"/>
+      <c r="A114" s="87"/>
+      <c r="B114" s="87"/>
       <c r="C114" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D114" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="82"/>
+      <c r="E114" s="87"/>
     </row>
     <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="83"/>
-      <c r="B115" s="83"/>
+      <c r="A115" s="88"/>
+      <c r="B115" s="88"/>
       <c r="C115" s="53" t="s">
         <v>130</v>
       </c>
       <c r="D115" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E115" s="83"/>
+      <c r="E115" s="88"/>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="97">
+      <c r="A116" s="95">
         <v>28</v>
       </c>
-      <c r="B116" s="96" t="s">
+      <c r="B116" s="92" t="s">
         <v>131</v>
       </c>
       <c r="C116" s="49" t="s">
@@ -6644,35 +6644,35 @@
       <c r="D116" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="81"/>
+      <c r="E116" s="93"/>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="82"/>
-      <c r="B117" s="82"/>
+      <c r="A117" s="87"/>
+      <c r="B117" s="87"/>
       <c r="C117" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D117" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="82"/>
+      <c r="E117" s="87"/>
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="83"/>
-      <c r="B118" s="83"/>
+      <c r="A118" s="88"/>
+      <c r="B118" s="88"/>
       <c r="C118" s="53" t="s">
         <v>130</v>
       </c>
       <c r="D118" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="83"/>
+      <c r="E118" s="88"/>
     </row>
     <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="97">
+      <c r="A119" s="95">
         <v>29</v>
       </c>
-      <c r="B119" s="96" t="s">
+      <c r="B119" s="92" t="s">
         <v>132</v>
       </c>
       <c r="C119" s="53" t="s">
@@ -6681,44 +6681,44 @@
       <c r="D119" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E119" s="81"/>
+      <c r="E119" s="93"/>
     </row>
     <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="82"/>
-      <c r="B120" s="82"/>
+      <c r="A120" s="87"/>
+      <c r="B120" s="87"/>
       <c r="C120" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D120" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="82"/>
+      <c r="E120" s="87"/>
     </row>
     <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="83"/>
-      <c r="B121" s="83"/>
+      <c r="A121" s="88"/>
+      <c r="B121" s="88"/>
       <c r="C121" s="53" t="s">
         <v>134</v>
       </c>
       <c r="D121" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E121" s="83"/>
+      <c r="E121" s="88"/>
     </row>
     <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="88" t="s">
+      <c r="A122" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="B122" s="89"/>
-      <c r="C122" s="89"/>
-      <c r="D122" s="89"/>
-      <c r="E122" s="90"/>
+      <c r="B122" s="98"/>
+      <c r="C122" s="98"/>
+      <c r="D122" s="98"/>
+      <c r="E122" s="99"/>
     </row>
     <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="95">
+      <c r="A123" s="91">
         <v>30</v>
       </c>
-      <c r="B123" s="96" t="s">
+      <c r="B123" s="92" t="s">
         <v>136</v>
       </c>
       <c r="C123" s="29" t="s">
@@ -6727,37 +6727,37 @@
       <c r="D123" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E123" s="91" t="s">
+      <c r="E123" s="111" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="82"/>
-      <c r="B124" s="82"/>
+      <c r="A124" s="87"/>
+      <c r="B124" s="87"/>
       <c r="C124" s="29" t="s">
         <v>65</v>
       </c>
       <c r="D124" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E124" s="82"/>
+      <c r="E124" s="87"/>
     </row>
     <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="83"/>
-      <c r="B125" s="83"/>
+      <c r="A125" s="88"/>
+      <c r="B125" s="88"/>
       <c r="C125" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D125" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E125" s="83"/>
+      <c r="E125" s="88"/>
     </row>
     <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="95">
+      <c r="A126" s="91">
         <v>31</v>
       </c>
-      <c r="B126" s="96" t="s">
+      <c r="B126" s="92" t="s">
         <v>139</v>
       </c>
       <c r="C126" s="29" t="s">
@@ -6766,41 +6766,41 @@
       <c r="D126" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E126" s="84"/>
+      <c r="E126" s="109"/>
       <c r="F126" s="65"/>
       <c r="G126" s="65"/>
     </row>
     <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="82"/>
-      <c r="B127" s="82"/>
+      <c r="A127" s="87"/>
+      <c r="B127" s="87"/>
       <c r="C127" s="29" t="s">
         <v>65</v>
       </c>
       <c r="D127" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E127" s="82"/>
+      <c r="E127" s="87"/>
       <c r="F127" s="66"/>
       <c r="G127" s="67"/>
     </row>
     <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="83"/>
-      <c r="B128" s="83"/>
+      <c r="A128" s="88"/>
+      <c r="B128" s="88"/>
       <c r="C128" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D128" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E128" s="83"/>
+      <c r="E128" s="88"/>
       <c r="F128" s="66"/>
       <c r="G128" s="67"/>
     </row>
     <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="95">
+      <c r="A129" s="91">
         <v>32</v>
       </c>
-      <c r="B129" s="96" t="s">
+      <c r="B129" s="92" t="s">
         <v>141</v>
       </c>
       <c r="C129" s="29" t="s">
@@ -6809,41 +6809,41 @@
       <c r="D129" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E129" s="84"/>
+      <c r="E129" s="109"/>
       <c r="F129" s="66"/>
       <c r="G129" s="67"/>
     </row>
     <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="82"/>
-      <c r="B130" s="82"/>
+      <c r="A130" s="87"/>
+      <c r="B130" s="87"/>
       <c r="C130" s="29" t="s">
         <v>65</v>
       </c>
       <c r="D130" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E130" s="82"/>
+      <c r="E130" s="87"/>
       <c r="F130" s="66"/>
       <c r="G130" s="67"/>
     </row>
     <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="83"/>
-      <c r="B131" s="83"/>
+      <c r="A131" s="88"/>
+      <c r="B131" s="88"/>
       <c r="C131" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D131" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E131" s="83"/>
+      <c r="E131" s="88"/>
       <c r="F131" s="66"/>
       <c r="G131" s="67"/>
     </row>
     <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="95">
+      <c r="A132" s="91">
         <v>33</v>
       </c>
-      <c r="B132" s="96" t="s">
+      <c r="B132" s="92" t="s">
         <v>142</v>
       </c>
       <c r="C132" s="29" t="s">
@@ -6852,41 +6852,41 @@
       <c r="D132" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E132" s="84"/>
+      <c r="E132" s="109"/>
       <c r="F132" s="66"/>
       <c r="G132" s="67"/>
     </row>
     <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="82"/>
-      <c r="B133" s="82"/>
+      <c r="A133" s="87"/>
+      <c r="B133" s="87"/>
       <c r="C133" s="29" t="s">
         <v>65</v>
       </c>
       <c r="D133" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E133" s="82"/>
+      <c r="E133" s="87"/>
       <c r="F133" s="66"/>
       <c r="G133" s="67"/>
     </row>
     <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="83"/>
-      <c r="B134" s="83"/>
+      <c r="A134" s="88"/>
+      <c r="B134" s="88"/>
       <c r="C134" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D134" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E134" s="83"/>
-      <c r="F134" s="92"/>
+      <c r="E134" s="88"/>
+      <c r="F134" s="110"/>
       <c r="G134" s="67"/>
     </row>
     <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="95">
+      <c r="A135" s="91">
         <v>34</v>
       </c>
-      <c r="B135" s="96" t="s">
+      <c r="B135" s="92" t="s">
         <v>143</v>
       </c>
       <c r="C135" s="29" t="s">
@@ -6895,41 +6895,41 @@
       <c r="D135" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E135" s="84"/>
+      <c r="E135" s="109"/>
       <c r="F135" s="80"/>
       <c r="G135" s="67"/>
     </row>
     <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="82"/>
-      <c r="B136" s="82"/>
+      <c r="A136" s="87"/>
+      <c r="B136" s="87"/>
       <c r="C136" s="29" t="s">
         <v>65</v>
       </c>
       <c r="D136" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E136" s="82"/>
+      <c r="E136" s="87"/>
       <c r="F136" s="80"/>
       <c r="G136" s="65"/>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="83"/>
-      <c r="B137" s="83"/>
+      <c r="A137" s="88"/>
+      <c r="B137" s="88"/>
       <c r="C137" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D137" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E137" s="83"/>
+      <c r="E137" s="88"/>
       <c r="F137" s="68"/>
       <c r="G137" s="65"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="95">
+      <c r="A138" s="91">
         <v>35</v>
       </c>
-      <c r="B138" s="96" t="s">
+      <c r="B138" s="92" t="s">
         <v>144</v>
       </c>
       <c r="C138" s="29" t="s">
@@ -6938,41 +6938,41 @@
       <c r="D138" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E138" s="91" t="s">
+      <c r="E138" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="F138" s="93"/>
+      <c r="F138" s="112"/>
       <c r="G138" s="65"/>
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="82"/>
-      <c r="B139" s="82"/>
+      <c r="A139" s="87"/>
+      <c r="B139" s="87"/>
       <c r="C139" s="29" t="s">
         <v>65</v>
       </c>
       <c r="D139" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E139" s="82"/>
+      <c r="E139" s="87"/>
       <c r="F139" s="80"/>
       <c r="G139" s="65"/>
     </row>
     <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="83"/>
-      <c r="B140" s="83"/>
+      <c r="A140" s="88"/>
+      <c r="B140" s="88"/>
       <c r="C140" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D140" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E140" s="83"/>
+      <c r="E140" s="88"/>
       <c r="F140" s="80"/>
       <c r="G140" s="65"/>
     </row>
     <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="95"/>
-      <c r="B141" s="96" t="s">
+      <c r="A141" s="91"/>
+      <c r="B141" s="92" t="s">
         <v>145</v>
       </c>
       <c r="C141" s="29" t="s">
@@ -6981,35 +6981,35 @@
       <c r="D141" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="E141" s="91" t="s">
+      <c r="E141" s="111" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="82"/>
-      <c r="B142" s="82"/>
+      <c r="A142" s="87"/>
+      <c r="B142" s="87"/>
       <c r="C142" s="29" t="s">
         <v>65</v>
       </c>
       <c r="D142" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E142" s="82"/>
+      <c r="E142" s="87"/>
     </row>
     <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="83"/>
-      <c r="B143" s="83"/>
+      <c r="A143" s="88"/>
+      <c r="B143" s="88"/>
       <c r="C143" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D143" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E143" s="83"/>
+      <c r="E143" s="88"/>
     </row>
     <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="95"/>
-      <c r="B144" s="96" t="s">
+      <c r="A144" s="91"/>
+      <c r="B144" s="92" t="s">
         <v>146</v>
       </c>
       <c r="C144" s="29" t="s">
@@ -7018,37 +7018,37 @@
       <c r="D144" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="E144" s="91" t="s">
+      <c r="E144" s="111" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="82"/>
-      <c r="B145" s="82"/>
+      <c r="A145" s="87"/>
+      <c r="B145" s="87"/>
       <c r="C145" s="29" t="s">
         <v>65</v>
       </c>
       <c r="D145" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E145" s="82"/>
+      <c r="E145" s="87"/>
     </row>
     <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="83"/>
-      <c r="B146" s="83"/>
+      <c r="A146" s="88"/>
+      <c r="B146" s="88"/>
       <c r="C146" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D146" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E146" s="83"/>
+      <c r="E146" s="88"/>
     </row>
     <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="97">
+      <c r="A147" s="95">
         <v>36</v>
       </c>
-      <c r="B147" s="86" t="s">
+      <c r="B147" s="96" t="s">
         <v>147</v>
       </c>
       <c r="C147" s="49" t="s">
@@ -7057,35 +7057,35 @@
       <c r="D147" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E147" s="81"/>
+      <c r="E147" s="93"/>
     </row>
     <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="82"/>
-      <c r="B148" s="82"/>
+      <c r="A148" s="87"/>
+      <c r="B148" s="87"/>
       <c r="C148" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D148" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E148" s="82"/>
+      <c r="E148" s="87"/>
     </row>
     <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="83"/>
-      <c r="B149" s="83"/>
+      <c r="A149" s="88"/>
+      <c r="B149" s="88"/>
       <c r="C149" s="53" t="s">
         <v>148</v>
       </c>
       <c r="D149" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E149" s="83"/>
+      <c r="E149" s="88"/>
     </row>
     <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="97">
+      <c r="A150" s="95">
         <v>37</v>
       </c>
-      <c r="B150" s="86" t="s">
+      <c r="B150" s="96" t="s">
         <v>149</v>
       </c>
       <c r="C150" s="49" t="s">
@@ -7094,35 +7094,35 @@
       <c r="D150" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E150" s="81"/>
+      <c r="E150" s="93"/>
     </row>
     <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="82"/>
-      <c r="B151" s="82"/>
+      <c r="A151" s="87"/>
+      <c r="B151" s="87"/>
       <c r="C151" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D151" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E151" s="82"/>
+      <c r="E151" s="87"/>
     </row>
     <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="83"/>
-      <c r="B152" s="83"/>
+      <c r="A152" s="88"/>
+      <c r="B152" s="88"/>
       <c r="C152" s="53" t="s">
         <v>148</v>
       </c>
       <c r="D152" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E152" s="83"/>
+      <c r="E152" s="88"/>
     </row>
     <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="97">
+      <c r="A153" s="95">
         <v>38</v>
       </c>
-      <c r="B153" s="86" t="s">
+      <c r="B153" s="96" t="s">
         <v>150</v>
       </c>
       <c r="C153" s="49" t="s">
@@ -7131,35 +7131,35 @@
       <c r="D153" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E153" s="81"/>
+      <c r="E153" s="93"/>
     </row>
     <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="82"/>
-      <c r="B154" s="82"/>
+      <c r="A154" s="87"/>
+      <c r="B154" s="87"/>
       <c r="C154" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D154" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E154" s="82"/>
+      <c r="E154" s="87"/>
     </row>
     <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="83"/>
-      <c r="B155" s="83"/>
+      <c r="A155" s="88"/>
+      <c r="B155" s="88"/>
       <c r="C155" s="53" t="s">
         <v>151</v>
       </c>
       <c r="D155" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E155" s="83"/>
+      <c r="E155" s="88"/>
     </row>
     <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="97">
+      <c r="A156" s="95">
         <v>39</v>
       </c>
-      <c r="B156" s="86" t="s">
+      <c r="B156" s="96" t="s">
         <v>152</v>
       </c>
       <c r="C156" s="49" t="s">
@@ -7168,35 +7168,35 @@
       <c r="D156" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E156" s="81"/>
+      <c r="E156" s="93"/>
     </row>
     <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="82"/>
-      <c r="B157" s="82"/>
+      <c r="A157" s="87"/>
+      <c r="B157" s="87"/>
       <c r="C157" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D157" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E157" s="82"/>
+      <c r="E157" s="87"/>
     </row>
     <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="83"/>
-      <c r="B158" s="83"/>
+      <c r="A158" s="88"/>
+      <c r="B158" s="88"/>
       <c r="C158" s="53" t="s">
         <v>151</v>
       </c>
       <c r="D158" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E158" s="83"/>
+      <c r="E158" s="88"/>
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="97">
+      <c r="A159" s="95">
         <v>40</v>
       </c>
-      <c r="B159" s="86" t="s">
+      <c r="B159" s="96" t="s">
         <v>153</v>
       </c>
       <c r="C159" s="49" t="s">
@@ -7205,35 +7205,35 @@
       <c r="D159" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E159" s="81"/>
+      <c r="E159" s="93"/>
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="82"/>
-      <c r="B160" s="82"/>
+      <c r="A160" s="87"/>
+      <c r="B160" s="87"/>
       <c r="C160" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D160" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E160" s="82"/>
+      <c r="E160" s="87"/>
     </row>
     <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="83"/>
-      <c r="B161" s="83"/>
+      <c r="A161" s="88"/>
+      <c r="B161" s="88"/>
       <c r="C161" s="53" t="s">
         <v>151</v>
       </c>
       <c r="D161" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="83"/>
+      <c r="E161" s="88"/>
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="97">
+      <c r="A162" s="95">
         <v>41</v>
       </c>
-      <c r="B162" s="86" t="s">
+      <c r="B162" s="96" t="s">
         <v>154</v>
       </c>
       <c r="C162" s="49" t="s">
@@ -7242,35 +7242,35 @@
       <c r="D162" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E162" s="81"/>
+      <c r="E162" s="93"/>
     </row>
     <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="82"/>
-      <c r="B163" s="82"/>
+      <c r="A163" s="87"/>
+      <c r="B163" s="87"/>
       <c r="C163" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D163" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E163" s="82"/>
+      <c r="E163" s="87"/>
     </row>
     <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="83"/>
-      <c r="B164" s="83"/>
+      <c r="A164" s="88"/>
+      <c r="B164" s="88"/>
       <c r="C164" s="53" t="s">
         <v>155</v>
       </c>
       <c r="D164" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E164" s="83"/>
+      <c r="E164" s="88"/>
     </row>
     <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="97">
+      <c r="A165" s="95">
         <v>42</v>
       </c>
-      <c r="B165" s="96" t="s">
+      <c r="B165" s="92" t="s">
         <v>156</v>
       </c>
       <c r="C165" s="49" t="s">
@@ -7279,35 +7279,35 @@
       <c r="D165" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E165" s="81"/>
+      <c r="E165" s="93"/>
     </row>
     <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="82"/>
-      <c r="B166" s="82"/>
+      <c r="A166" s="87"/>
+      <c r="B166" s="87"/>
       <c r="C166" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D166" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E166" s="82"/>
+      <c r="E166" s="87"/>
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="83"/>
-      <c r="B167" s="83"/>
+      <c r="A167" s="88"/>
+      <c r="B167" s="88"/>
       <c r="C167" s="53" t="s">
         <v>148</v>
       </c>
       <c r="D167" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E167" s="83"/>
+      <c r="E167" s="88"/>
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="97">
+      <c r="A168" s="95">
         <v>43</v>
       </c>
-      <c r="B168" s="96" t="s">
+      <c r="B168" s="92" t="s">
         <v>157</v>
       </c>
       <c r="C168" s="49" t="s">
@@ -7316,35 +7316,35 @@
       <c r="D168" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E168" s="81"/>
+      <c r="E168" s="93"/>
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="82"/>
-      <c r="B169" s="82"/>
+      <c r="A169" s="87"/>
+      <c r="B169" s="87"/>
       <c r="C169" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D169" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E169" s="82"/>
+      <c r="E169" s="87"/>
     </row>
     <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="83"/>
-      <c r="B170" s="83"/>
+      <c r="A170" s="88"/>
+      <c r="B170" s="88"/>
       <c r="C170" s="53" t="s">
         <v>148</v>
       </c>
       <c r="D170" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E170" s="83"/>
+      <c r="E170" s="88"/>
     </row>
     <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="97">
+      <c r="A171" s="95">
         <v>44</v>
       </c>
-      <c r="B171" s="86" t="s">
+      <c r="B171" s="96" t="s">
         <v>158</v>
       </c>
       <c r="C171" s="49" t="s">
@@ -7353,35 +7353,35 @@
       <c r="D171" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E171" s="81"/>
+      <c r="E171" s="93"/>
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="82"/>
-      <c r="B172" s="82"/>
+      <c r="A172" s="87"/>
+      <c r="B172" s="87"/>
       <c r="C172" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D172" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E172" s="82"/>
+      <c r="E172" s="87"/>
     </row>
     <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="83"/>
-      <c r="B173" s="83"/>
+      <c r="A173" s="88"/>
+      <c r="B173" s="88"/>
       <c r="C173" s="53" t="s">
         <v>148</v>
       </c>
       <c r="D173" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E173" s="83"/>
+      <c r="E173" s="88"/>
     </row>
     <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="97">
+      <c r="A174" s="95">
         <v>45</v>
       </c>
-      <c r="B174" s="86" t="s">
+      <c r="B174" s="96" t="s">
         <v>159</v>
       </c>
       <c r="C174" s="49" t="s">
@@ -7390,35 +7390,35 @@
       <c r="D174" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E174" s="81"/>
+      <c r="E174" s="93"/>
     </row>
     <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="82"/>
-      <c r="B175" s="82"/>
+      <c r="A175" s="87"/>
+      <c r="B175" s="87"/>
       <c r="C175" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D175" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E175" s="82"/>
+      <c r="E175" s="87"/>
     </row>
     <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="83"/>
-      <c r="B176" s="83"/>
+      <c r="A176" s="88"/>
+      <c r="B176" s="88"/>
       <c r="C176" s="53" t="s">
         <v>148</v>
       </c>
       <c r="D176" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E176" s="83"/>
+      <c r="E176" s="88"/>
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="97">
+      <c r="A177" s="95">
         <v>46</v>
       </c>
-      <c r="B177" s="86" t="s">
+      <c r="B177" s="96" t="s">
         <v>160</v>
       </c>
       <c r="C177" s="49" t="s">
@@ -7427,35 +7427,35 @@
       <c r="D177" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E177" s="81"/>
+      <c r="E177" s="93"/>
     </row>
     <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="82"/>
-      <c r="B178" s="82"/>
+      <c r="A178" s="87"/>
+      <c r="B178" s="87"/>
       <c r="C178" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D178" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E178" s="82"/>
+      <c r="E178" s="87"/>
     </row>
     <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="83"/>
-      <c r="B179" s="83"/>
+      <c r="A179" s="88"/>
+      <c r="B179" s="88"/>
       <c r="C179" s="53" t="s">
         <v>151</v>
       </c>
       <c r="D179" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E179" s="83"/>
+      <c r="E179" s="88"/>
     </row>
     <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="97">
+      <c r="A180" s="95">
         <v>47</v>
       </c>
-      <c r="B180" s="86" t="s">
+      <c r="B180" s="96" t="s">
         <v>161</v>
       </c>
       <c r="C180" s="49" t="s">
@@ -7464,35 +7464,35 @@
       <c r="D180" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E180" s="81"/>
+      <c r="E180" s="93"/>
     </row>
     <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="82"/>
-      <c r="B181" s="82"/>
+      <c r="A181" s="87"/>
+      <c r="B181" s="87"/>
       <c r="C181" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D181" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E181" s="82"/>
+      <c r="E181" s="87"/>
     </row>
     <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="83"/>
-      <c r="B182" s="83"/>
+      <c r="A182" s="88"/>
+      <c r="B182" s="88"/>
       <c r="C182" s="53" t="s">
         <v>151</v>
       </c>
       <c r="D182" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E182" s="83"/>
+      <c r="E182" s="88"/>
     </row>
     <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="97">
+      <c r="A183" s="95">
         <v>48</v>
       </c>
-      <c r="B183" s="86" t="s">
+      <c r="B183" s="96" t="s">
         <v>162</v>
       </c>
       <c r="C183" s="49" t="s">
@@ -7501,35 +7501,35 @@
       <c r="D183" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E183" s="81"/>
+      <c r="E183" s="93"/>
     </row>
     <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="82"/>
-      <c r="B184" s="82"/>
+      <c r="A184" s="87"/>
+      <c r="B184" s="87"/>
       <c r="C184" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D184" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E184" s="82"/>
+      <c r="E184" s="87"/>
     </row>
     <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="83"/>
-      <c r="B185" s="83"/>
+      <c r="A185" s="88"/>
+      <c r="B185" s="88"/>
       <c r="C185" s="53" t="s">
         <v>151</v>
       </c>
       <c r="D185" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E185" s="83"/>
+      <c r="E185" s="88"/>
     </row>
     <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="97">
+      <c r="A186" s="95">
         <v>49</v>
       </c>
-      <c r="B186" s="86" t="s">
+      <c r="B186" s="96" t="s">
         <v>163</v>
       </c>
       <c r="C186" s="49" t="s">
@@ -7538,33 +7538,33 @@
       <c r="D186" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E186" s="81"/>
+      <c r="E186" s="93"/>
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="82"/>
-      <c r="B187" s="82"/>
+      <c r="A187" s="87"/>
+      <c r="B187" s="87"/>
       <c r="C187" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D187" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E187" s="82"/>
+      <c r="E187" s="87"/>
     </row>
     <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="83"/>
-      <c r="B188" s="83"/>
+      <c r="A188" s="88"/>
+      <c r="B188" s="88"/>
       <c r="C188" s="53" t="s">
         <v>155</v>
       </c>
       <c r="D188" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E188" s="83"/>
+      <c r="E188" s="88"/>
     </row>
     <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="97"/>
-      <c r="B189" s="96" t="s">
+      <c r="A189" s="95"/>
+      <c r="B189" s="92" t="s">
         <v>164</v>
       </c>
       <c r="C189" s="49" t="s">
@@ -7573,33 +7573,33 @@
       <c r="D189" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E189" s="81"/>
+      <c r="E189" s="93"/>
     </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="82"/>
-      <c r="B190" s="82"/>
+      <c r="A190" s="87"/>
+      <c r="B190" s="87"/>
       <c r="C190" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D190" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E190" s="82"/>
+      <c r="E190" s="87"/>
     </row>
     <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="83"/>
-      <c r="B191" s="83"/>
+      <c r="A191" s="88"/>
+      <c r="B191" s="88"/>
       <c r="C191" s="53" t="s">
         <v>148</v>
       </c>
       <c r="D191" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E191" s="83"/>
+      <c r="E191" s="88"/>
     </row>
     <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="97"/>
-      <c r="B192" s="96" t="s">
+      <c r="A192" s="95"/>
+      <c r="B192" s="92" t="s">
         <v>165</v>
       </c>
       <c r="C192" s="49" t="s">
@@ -7608,33 +7608,33 @@
       <c r="D192" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E192" s="81"/>
+      <c r="E192" s="93"/>
     </row>
     <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="82"/>
-      <c r="B193" s="82"/>
+      <c r="A193" s="87"/>
+      <c r="B193" s="87"/>
       <c r="C193" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D193" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E193" s="82"/>
+      <c r="E193" s="87"/>
     </row>
     <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="83"/>
-      <c r="B194" s="83"/>
+      <c r="A194" s="88"/>
+      <c r="B194" s="88"/>
       <c r="C194" s="53" t="s">
         <v>148</v>
       </c>
       <c r="D194" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E194" s="83"/>
+      <c r="E194" s="88"/>
     </row>
     <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="97"/>
-      <c r="B195" s="96" t="s">
+      <c r="A195" s="95"/>
+      <c r="B195" s="92" t="s">
         <v>166</v>
       </c>
       <c r="C195" s="49" t="s">
@@ -7643,149 +7643,149 @@
       <c r="D195" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E195" s="112"/>
+      <c r="E195" s="94"/>
     </row>
     <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="82"/>
-      <c r="B196" s="82"/>
+      <c r="A196" s="87"/>
+      <c r="B196" s="87"/>
       <c r="C196" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D196" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E196" s="82"/>
+      <c r="E196" s="87"/>
     </row>
     <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="83"/>
-      <c r="B197" s="83"/>
+      <c r="A197" s="88"/>
+      <c r="B197" s="88"/>
       <c r="C197" s="53" t="s">
         <v>148</v>
       </c>
       <c r="D197" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E197" s="83"/>
+      <c r="E197" s="88"/>
     </row>
     <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="97"/>
-      <c r="B198" s="96" t="s">
+      <c r="A198" s="95"/>
+      <c r="B198" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="C198" s="98" t="s">
+      <c r="C198" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D198" s="99" t="s">
+      <c r="D198" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E198" s="94" t="s">
+      <c r="E198" s="89" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="82"/>
-      <c r="B199" s="82"/>
-      <c r="C199" s="82"/>
-      <c r="D199" s="82"/>
-      <c r="E199" s="82"/>
+      <c r="A199" s="87"/>
+      <c r="B199" s="87"/>
+      <c r="C199" s="87"/>
+      <c r="D199" s="87"/>
+      <c r="E199" s="87"/>
     </row>
     <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="83"/>
-      <c r="B200" s="83"/>
-      <c r="C200" s="83"/>
-      <c r="D200" s="83"/>
-      <c r="E200" s="83"/>
+      <c r="A200" s="88"/>
+      <c r="B200" s="88"/>
+      <c r="C200" s="88"/>
+      <c r="D200" s="88"/>
+      <c r="E200" s="88"/>
     </row>
     <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="97"/>
-      <c r="B201" s="96" t="s">
+      <c r="A201" s="95"/>
+      <c r="B201" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="C201" s="98" t="s">
+      <c r="C201" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D201" s="99" t="s">
+      <c r="D201" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E201" s="94" t="s">
+      <c r="E201" s="89" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="82"/>
-      <c r="B202" s="82"/>
-      <c r="C202" s="82"/>
-      <c r="D202" s="82"/>
-      <c r="E202" s="82"/>
+      <c r="A202" s="87"/>
+      <c r="B202" s="87"/>
+      <c r="C202" s="87"/>
+      <c r="D202" s="87"/>
+      <c r="E202" s="87"/>
     </row>
     <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="83"/>
-      <c r="B203" s="83"/>
-      <c r="C203" s="83"/>
-      <c r="D203" s="83"/>
-      <c r="E203" s="83"/>
+      <c r="A203" s="88"/>
+      <c r="B203" s="88"/>
+      <c r="C203" s="88"/>
+      <c r="D203" s="88"/>
+      <c r="E203" s="88"/>
     </row>
     <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="97"/>
-      <c r="B204" s="96" t="s">
+      <c r="A204" s="95"/>
+      <c r="B204" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="C204" s="98" t="s">
+      <c r="C204" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D204" s="99" t="s">
+      <c r="D204" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E204" s="94" t="s">
+      <c r="E204" s="89" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="82"/>
-      <c r="B205" s="82"/>
-      <c r="C205" s="82"/>
-      <c r="D205" s="82"/>
-      <c r="E205" s="82"/>
+      <c r="A205" s="87"/>
+      <c r="B205" s="87"/>
+      <c r="C205" s="87"/>
+      <c r="D205" s="87"/>
+      <c r="E205" s="87"/>
     </row>
     <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="83"/>
-      <c r="B206" s="83"/>
-      <c r="C206" s="83"/>
-      <c r="D206" s="83"/>
-      <c r="E206" s="83"/>
+      <c r="A206" s="88"/>
+      <c r="B206" s="88"/>
+      <c r="C206" s="88"/>
+      <c r="D206" s="88"/>
+      <c r="E206" s="88"/>
     </row>
     <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="97"/>
-      <c r="B207" s="96" t="s">
+      <c r="A207" s="95"/>
+      <c r="B207" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="C207" s="98" t="s">
+      <c r="C207" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D207" s="99" t="s">
+      <c r="D207" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E207" s="94" t="s">
+      <c r="E207" s="89" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="82"/>
-      <c r="B208" s="82"/>
-      <c r="C208" s="82"/>
-      <c r="D208" s="82"/>
-      <c r="E208" s="82"/>
+      <c r="A208" s="87"/>
+      <c r="B208" s="87"/>
+      <c r="C208" s="87"/>
+      <c r="D208" s="87"/>
+      <c r="E208" s="87"/>
     </row>
     <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="83"/>
-      <c r="B209" s="83"/>
-      <c r="C209" s="83"/>
-      <c r="D209" s="83"/>
-      <c r="E209" s="83"/>
+      <c r="A209" s="88"/>
+      <c r="B209" s="88"/>
+      <c r="C209" s="88"/>
+      <c r="D209" s="88"/>
+      <c r="E209" s="88"/>
     </row>
     <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="97"/>
-      <c r="B210" s="96" t="s">
+      <c r="A210" s="95"/>
+      <c r="B210" s="92" t="s">
         <v>173</v>
       </c>
       <c r="C210" s="49" t="s">
@@ -7794,31 +7794,31 @@
       <c r="D210" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E210" s="94" t="s">
+      <c r="E210" s="89" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="82"/>
-      <c r="B211" s="82"/>
+      <c r="A211" s="87"/>
+      <c r="B211" s="87"/>
       <c r="C211" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D211" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E211" s="82"/>
+      <c r="E211" s="87"/>
     </row>
     <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="83"/>
-      <c r="B212" s="83"/>
+      <c r="A212" s="88"/>
+      <c r="B212" s="88"/>
       <c r="C212" s="74"/>
       <c r="D212" s="75"/>
-      <c r="E212" s="83"/>
+      <c r="E212" s="88"/>
     </row>
     <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="97"/>
-      <c r="B213" s="96" t="s">
+      <c r="A213" s="95"/>
+      <c r="B213" s="92" t="s">
         <v>175</v>
       </c>
       <c r="C213" s="49" t="s">
@@ -7827,31 +7827,31 @@
       <c r="D213" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E213" s="94" t="s">
+      <c r="E213" s="89" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="82"/>
-      <c r="B214" s="82"/>
+      <c r="A214" s="87"/>
+      <c r="B214" s="87"/>
       <c r="C214" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D214" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E214" s="82"/>
+      <c r="E214" s="87"/>
     </row>
     <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="83"/>
-      <c r="B215" s="83"/>
+      <c r="A215" s="88"/>
+      <c r="B215" s="88"/>
       <c r="C215" s="74"/>
       <c r="D215" s="59"/>
-      <c r="E215" s="83"/>
+      <c r="E215" s="88"/>
     </row>
     <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="97"/>
-      <c r="B216" s="96" t="s">
+      <c r="A216" s="95"/>
+      <c r="B216" s="92" t="s">
         <v>176</v>
       </c>
       <c r="C216" s="49" t="s">
@@ -7860,31 +7860,31 @@
       <c r="D216" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E216" s="94" t="s">
+      <c r="E216" s="89" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="82"/>
-      <c r="B217" s="82"/>
+      <c r="A217" s="87"/>
+      <c r="B217" s="87"/>
       <c r="C217" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D217" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E217" s="82"/>
+      <c r="E217" s="87"/>
     </row>
     <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="83"/>
-      <c r="B218" s="83"/>
+      <c r="A218" s="88"/>
+      <c r="B218" s="88"/>
       <c r="C218" s="74"/>
       <c r="D218" s="59"/>
-      <c r="E218" s="83"/>
+      <c r="E218" s="88"/>
     </row>
     <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="97"/>
-      <c r="B219" s="96" t="s">
+      <c r="A219" s="95"/>
+      <c r="B219" s="92" t="s">
         <v>177</v>
       </c>
       <c r="C219" s="49" t="s">
@@ -7893,31 +7893,31 @@
       <c r="D219" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E219" s="94" t="s">
+      <c r="E219" s="89" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="82"/>
-      <c r="B220" s="82"/>
+      <c r="A220" s="87"/>
+      <c r="B220" s="87"/>
       <c r="C220" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D220" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E220" s="82"/>
+      <c r="E220" s="87"/>
     </row>
     <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="83"/>
-      <c r="B221" s="83"/>
+      <c r="A221" s="88"/>
+      <c r="B221" s="88"/>
       <c r="C221" s="74"/>
       <c r="D221" s="59"/>
-      <c r="E221" s="83"/>
+      <c r="E221" s="88"/>
     </row>
     <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="97"/>
-      <c r="B222" s="96" t="s">
+      <c r="A222" s="95"/>
+      <c r="B222" s="92" t="s">
         <v>178</v>
       </c>
       <c r="C222" s="49" t="s">
@@ -7926,31 +7926,31 @@
       <c r="D222" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E222" s="94" t="s">
+      <c r="E222" s="89" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="82"/>
-      <c r="B223" s="82"/>
+      <c r="A223" s="87"/>
+      <c r="B223" s="87"/>
       <c r="C223" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D223" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E223" s="82"/>
+      <c r="E223" s="87"/>
     </row>
     <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="83"/>
-      <c r="B224" s="83"/>
+      <c r="A224" s="88"/>
+      <c r="B224" s="88"/>
       <c r="C224" s="74"/>
       <c r="D224" s="59"/>
-      <c r="E224" s="83"/>
+      <c r="E224" s="88"/>
     </row>
     <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="97"/>
-      <c r="B225" s="96" t="s">
+      <c r="A225" s="95"/>
+      <c r="B225" s="92" t="s">
         <v>179</v>
       </c>
       <c r="C225" s="49" t="s">
@@ -7959,31 +7959,31 @@
       <c r="D225" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E225" s="94" t="s">
+      <c r="E225" s="89" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="82"/>
-      <c r="B226" s="82"/>
+      <c r="A226" s="87"/>
+      <c r="B226" s="87"/>
       <c r="C226" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D226" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E226" s="82"/>
+      <c r="E226" s="87"/>
     </row>
     <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="83"/>
-      <c r="B227" s="83"/>
+      <c r="A227" s="88"/>
+      <c r="B227" s="88"/>
       <c r="C227" s="74"/>
       <c r="D227" s="59"/>
-      <c r="E227" s="83"/>
+      <c r="E227" s="88"/>
     </row>
     <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="97"/>
-      <c r="B228" s="96" t="s">
+      <c r="A228" s="95"/>
+      <c r="B228" s="92" t="s">
         <v>180</v>
       </c>
       <c r="C228" s="49" t="s">
@@ -7992,230 +7992,230 @@
       <c r="D228" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E228" s="94" t="s">
+      <c r="E228" s="89" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="82"/>
-      <c r="B229" s="82"/>
+      <c r="A229" s="87"/>
+      <c r="B229" s="87"/>
       <c r="C229" s="49" t="s">
         <v>65</v>
       </c>
       <c r="D229" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E229" s="82"/>
+      <c r="E229" s="87"/>
     </row>
     <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="83"/>
-      <c r="B230" s="83"/>
+      <c r="A230" s="88"/>
+      <c r="B230" s="88"/>
       <c r="C230" s="74"/>
       <c r="D230" s="59"/>
-      <c r="E230" s="83"/>
+      <c r="E230" s="88"/>
     </row>
     <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="97"/>
-      <c r="B231" s="96" t="s">
+      <c r="A231" s="95"/>
+      <c r="B231" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="C231" s="98" t="s">
+      <c r="C231" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D231" s="99" t="s">
+      <c r="D231" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E231" s="94" t="s">
+      <c r="E231" s="89" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="82"/>
-      <c r="B232" s="82"/>
-      <c r="C232" s="82"/>
-      <c r="D232" s="82"/>
-      <c r="E232" s="82"/>
+      <c r="A232" s="87"/>
+      <c r="B232" s="87"/>
+      <c r="C232" s="87"/>
+      <c r="D232" s="87"/>
+      <c r="E232" s="87"/>
     </row>
     <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="83"/>
-      <c r="B233" s="83"/>
-      <c r="C233" s="83"/>
-      <c r="D233" s="83"/>
-      <c r="E233" s="83"/>
+      <c r="A233" s="88"/>
+      <c r="B233" s="88"/>
+      <c r="C233" s="88"/>
+      <c r="D233" s="88"/>
+      <c r="E233" s="88"/>
     </row>
     <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="97"/>
-      <c r="B234" s="96" t="s">
+      <c r="A234" s="95"/>
+      <c r="B234" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="C234" s="98" t="s">
+      <c r="C234" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D234" s="99" t="s">
+      <c r="D234" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E234" s="94" t="s">
+      <c r="E234" s="89" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="82"/>
-      <c r="B235" s="82"/>
-      <c r="C235" s="82"/>
-      <c r="D235" s="82"/>
-      <c r="E235" s="82"/>
+      <c r="A235" s="87"/>
+      <c r="B235" s="87"/>
+      <c r="C235" s="87"/>
+      <c r="D235" s="87"/>
+      <c r="E235" s="87"/>
     </row>
     <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="83"/>
-      <c r="B236" s="83"/>
-      <c r="C236" s="83"/>
-      <c r="D236" s="83"/>
-      <c r="E236" s="83"/>
+      <c r="A236" s="88"/>
+      <c r="B236" s="88"/>
+      <c r="C236" s="88"/>
+      <c r="D236" s="88"/>
+      <c r="E236" s="88"/>
     </row>
     <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="97"/>
-      <c r="B237" s="96" t="s">
+      <c r="A237" s="95"/>
+      <c r="B237" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="C237" s="98" t="s">
+      <c r="C237" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D237" s="99" t="s">
+      <c r="D237" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E237" s="94" t="s">
+      <c r="E237" s="89" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="82"/>
-      <c r="B238" s="82"/>
-      <c r="C238" s="82"/>
-      <c r="D238" s="82"/>
-      <c r="E238" s="82"/>
+      <c r="A238" s="87"/>
+      <c r="B238" s="87"/>
+      <c r="C238" s="87"/>
+      <c r="D238" s="87"/>
+      <c r="E238" s="87"/>
     </row>
     <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="83"/>
-      <c r="B239" s="83"/>
-      <c r="C239" s="83"/>
-      <c r="D239" s="83"/>
-      <c r="E239" s="83"/>
+      <c r="A239" s="88"/>
+      <c r="B239" s="88"/>
+      <c r="C239" s="88"/>
+      <c r="D239" s="88"/>
+      <c r="E239" s="88"/>
     </row>
     <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="97"/>
-      <c r="B240" s="96" t="s">
+      <c r="A240" s="95"/>
+      <c r="B240" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="C240" s="98" t="s">
+      <c r="C240" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D240" s="100" t="s">
+      <c r="D240" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="E240" s="94" t="s">
+      <c r="E240" s="89" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="82"/>
-      <c r="B241" s="82"/>
-      <c r="C241" s="82"/>
-      <c r="D241" s="82"/>
-      <c r="E241" s="82"/>
+      <c r="A241" s="87"/>
+      <c r="B241" s="87"/>
+      <c r="C241" s="87"/>
+      <c r="D241" s="87"/>
+      <c r="E241" s="87"/>
     </row>
     <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="83"/>
-      <c r="B242" s="83"/>
-      <c r="C242" s="83"/>
-      <c r="D242" s="83"/>
-      <c r="E242" s="83"/>
+      <c r="A242" s="88"/>
+      <c r="B242" s="88"/>
+      <c r="C242" s="88"/>
+      <c r="D242" s="88"/>
+      <c r="E242" s="88"/>
     </row>
     <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="97"/>
-      <c r="B243" s="96" t="s">
+      <c r="A243" s="95"/>
+      <c r="B243" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="C243" s="98" t="s">
+      <c r="C243" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D243" s="99" t="s">
+      <c r="D243" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E243" s="94" t="s">
+      <c r="E243" s="89" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="82"/>
-      <c r="B244" s="82"/>
-      <c r="C244" s="82"/>
-      <c r="D244" s="82"/>
-      <c r="E244" s="82"/>
+      <c r="A244" s="87"/>
+      <c r="B244" s="87"/>
+      <c r="C244" s="87"/>
+      <c r="D244" s="87"/>
+      <c r="E244" s="87"/>
     </row>
     <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="83"/>
-      <c r="B245" s="83"/>
-      <c r="C245" s="83"/>
-      <c r="D245" s="83"/>
-      <c r="E245" s="83"/>
+      <c r="A245" s="88"/>
+      <c r="B245" s="88"/>
+      <c r="C245" s="88"/>
+      <c r="D245" s="88"/>
+      <c r="E245" s="88"/>
     </row>
     <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="97"/>
-      <c r="B246" s="96" t="s">
+      <c r="A246" s="95"/>
+      <c r="B246" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="C246" s="98" t="s">
+      <c r="C246" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D246" s="99" t="s">
+      <c r="D246" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E246" s="94" t="s">
+      <c r="E246" s="89" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="82"/>
-      <c r="B247" s="82"/>
-      <c r="C247" s="82"/>
-      <c r="D247" s="82"/>
-      <c r="E247" s="82"/>
+      <c r="A247" s="87"/>
+      <c r="B247" s="87"/>
+      <c r="C247" s="87"/>
+      <c r="D247" s="87"/>
+      <c r="E247" s="87"/>
     </row>
     <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="83"/>
-      <c r="B248" s="83"/>
-      <c r="C248" s="83"/>
-      <c r="D248" s="83"/>
-      <c r="E248" s="83"/>
+      <c r="A248" s="88"/>
+      <c r="B248" s="88"/>
+      <c r="C248" s="88"/>
+      <c r="D248" s="88"/>
+      <c r="E248" s="88"/>
     </row>
     <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="97"/>
-      <c r="B249" s="96" t="s">
+      <c r="A249" s="95"/>
+      <c r="B249" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="C249" s="98" t="s">
+      <c r="C249" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D249" s="99" t="s">
+      <c r="D249" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E249" s="94" t="s">
+      <c r="E249" s="89" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="82"/>
-      <c r="B250" s="82"/>
-      <c r="C250" s="82"/>
-      <c r="D250" s="82"/>
-      <c r="E250" s="82"/>
+      <c r="A250" s="87"/>
+      <c r="B250" s="87"/>
+      <c r="C250" s="87"/>
+      <c r="D250" s="87"/>
+      <c r="E250" s="87"/>
     </row>
     <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="83"/>
-      <c r="B251" s="83"/>
-      <c r="C251" s="83"/>
-      <c r="D251" s="83"/>
-      <c r="E251" s="83"/>
+      <c r="A251" s="88"/>
+      <c r="B251" s="88"/>
+      <c r="C251" s="88"/>
+      <c r="D251" s="88"/>
+      <c r="E251" s="88"/>
     </row>
     <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8435,11 +8435,11 @@
       <c r="D382" s="45"/>
     </row>
     <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="102"/>
-      <c r="B383" s="103"/>
+      <c r="A383" s="81"/>
+      <c r="B383" s="83"/>
       <c r="C383" s="77"/>
       <c r="D383" s="78"/>
-      <c r="E383" s="101"/>
+      <c r="E383" s="85"/>
     </row>
     <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="80"/>
@@ -8456,11 +8456,11 @@
       <c r="E385" s="80"/>
     </row>
     <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="102"/>
-      <c r="B386" s="103"/>
+      <c r="A386" s="81"/>
+      <c r="B386" s="83"/>
       <c r="C386" s="77"/>
       <c r="D386" s="78"/>
-      <c r="E386" s="101"/>
+      <c r="E386" s="85"/>
     </row>
     <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="80"/>
@@ -8477,11 +8477,11 @@
       <c r="E388" s="80"/>
     </row>
     <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="102"/>
-      <c r="B389" s="103"/>
+      <c r="A389" s="81"/>
+      <c r="B389" s="83"/>
       <c r="C389" s="77"/>
       <c r="D389" s="78"/>
-      <c r="E389" s="101"/>
+      <c r="E389" s="85"/>
     </row>
     <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="80"/>
@@ -8498,11 +8498,11 @@
       <c r="E391" s="80"/>
     </row>
     <row r="392" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="102"/>
-      <c r="B392" s="103"/>
+      <c r="A392" s="81"/>
+      <c r="B392" s="83"/>
       <c r="C392" s="77"/>
       <c r="D392" s="78"/>
-      <c r="E392" s="101"/>
+      <c r="E392" s="85"/>
     </row>
     <row r="393" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="80"/>
@@ -8519,11 +8519,11 @@
       <c r="E394" s="80"/>
     </row>
     <row r="395" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="102"/>
-      <c r="B395" s="103"/>
+      <c r="A395" s="81"/>
+      <c r="B395" s="83"/>
       <c r="C395" s="77"/>
       <c r="D395" s="78"/>
-      <c r="E395" s="101"/>
+      <c r="E395" s="85"/>
     </row>
     <row r="396" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="80"/>
@@ -8540,11 +8540,11 @@
       <c r="E397" s="80"/>
     </row>
     <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="102"/>
-      <c r="B398" s="103"/>
+      <c r="A398" s="81"/>
+      <c r="B398" s="83"/>
       <c r="C398" s="77"/>
       <c r="D398" s="78"/>
-      <c r="E398" s="101"/>
+      <c r="E398" s="85"/>
     </row>
     <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="80"/>
@@ -8561,11 +8561,11 @@
       <c r="E400" s="80"/>
     </row>
     <row r="401" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="102"/>
-      <c r="B401" s="103"/>
+      <c r="A401" s="81"/>
+      <c r="B401" s="83"/>
       <c r="C401" s="77"/>
       <c r="D401" s="78"/>
-      <c r="E401" s="101"/>
+      <c r="E401" s="85"/>
     </row>
     <row r="402" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="80"/>
@@ -8582,18 +8582,18 @@
       <c r="E403" s="80"/>
     </row>
     <row r="404" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="104"/>
+      <c r="A404" s="108"/>
       <c r="B404" s="80"/>
       <c r="C404" s="80"/>
       <c r="D404" s="80"/>
       <c r="E404" s="80"/>
     </row>
     <row r="405" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="102"/>
-      <c r="B405" s="103"/>
+      <c r="A405" s="81"/>
+      <c r="B405" s="83"/>
       <c r="C405" s="77"/>
       <c r="D405" s="78"/>
-      <c r="E405" s="101"/>
+      <c r="E405" s="85"/>
     </row>
     <row r="406" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="80"/>
@@ -8610,11 +8610,11 @@
       <c r="E407" s="80"/>
     </row>
     <row r="408" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="102"/>
-      <c r="B408" s="103"/>
+      <c r="A408" s="81"/>
+      <c r="B408" s="83"/>
       <c r="C408" s="77"/>
       <c r="D408" s="78"/>
-      <c r="E408" s="101"/>
+      <c r="E408" s="85"/>
     </row>
     <row r="409" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="80"/>
@@ -8631,11 +8631,11 @@
       <c r="E410" s="80"/>
     </row>
     <row r="411" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="102"/>
-      <c r="B411" s="103"/>
+      <c r="A411" s="81"/>
+      <c r="B411" s="83"/>
       <c r="C411" s="77"/>
       <c r="D411" s="78"/>
-      <c r="E411" s="101"/>
+      <c r="E411" s="85"/>
     </row>
     <row r="412" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="80"/>
@@ -8652,11 +8652,11 @@
       <c r="E413" s="80"/>
     </row>
     <row r="414" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="102"/>
-      <c r="B414" s="103"/>
+      <c r="A414" s="81"/>
+      <c r="B414" s="83"/>
       <c r="C414" s="77"/>
       <c r="D414" s="78"/>
-      <c r="E414" s="101"/>
+      <c r="E414" s="85"/>
     </row>
     <row r="415" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="80"/>
@@ -8673,11 +8673,11 @@
       <c r="E416" s="80"/>
     </row>
     <row r="417" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="102"/>
-      <c r="B417" s="103"/>
+      <c r="A417" s="81"/>
+      <c r="B417" s="83"/>
       <c r="C417" s="77"/>
       <c r="D417" s="78"/>
-      <c r="E417" s="101"/>
+      <c r="E417" s="85"/>
     </row>
     <row r="418" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="80"/>
@@ -8694,11 +8694,11 @@
       <c r="E419" s="80"/>
     </row>
     <row r="420" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="102"/>
-      <c r="B420" s="105"/>
+      <c r="A420" s="81"/>
+      <c r="B420" s="84"/>
       <c r="C420" s="77"/>
       <c r="D420" s="78"/>
-      <c r="E420" s="101"/>
+      <c r="E420" s="85"/>
     </row>
     <row r="421" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="80"/>
@@ -8715,11 +8715,11 @@
       <c r="E422" s="80"/>
     </row>
     <row r="423" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="102"/>
-      <c r="B423" s="105"/>
+      <c r="A423" s="81"/>
+      <c r="B423" s="84"/>
       <c r="C423" s="77"/>
       <c r="D423" s="78"/>
-      <c r="E423" s="101"/>
+      <c r="E423" s="85"/>
     </row>
     <row r="424" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="80"/>
@@ -8736,11 +8736,11 @@
       <c r="E425" s="80"/>
     </row>
     <row r="426" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="102"/>
-      <c r="B426" s="105"/>
+      <c r="A426" s="81"/>
+      <c r="B426" s="84"/>
       <c r="C426" s="77"/>
       <c r="D426" s="78"/>
-      <c r="E426" s="101"/>
+      <c r="E426" s="85"/>
     </row>
     <row r="427" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="80"/>
@@ -8757,11 +8757,11 @@
       <c r="E428" s="80"/>
     </row>
     <row r="429" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="102"/>
-      <c r="B429" s="113"/>
+      <c r="A429" s="81"/>
+      <c r="B429" s="82"/>
       <c r="C429" s="77"/>
       <c r="D429" s="78"/>
-      <c r="E429" s="101"/>
+      <c r="E429" s="85"/>
     </row>
     <row r="430" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="80"/>
@@ -8778,11 +8778,11 @@
       <c r="E431" s="80"/>
     </row>
     <row r="432" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="102"/>
-      <c r="B432" s="105"/>
+      <c r="A432" s="81"/>
+      <c r="B432" s="84"/>
       <c r="C432" s="77"/>
       <c r="D432" s="78"/>
-      <c r="E432" s="101"/>
+      <c r="E432" s="85"/>
     </row>
     <row r="433" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="80"/>
@@ -8799,18 +8799,18 @@
       <c r="E434" s="80"/>
     </row>
     <row r="435" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="106"/>
+      <c r="A435" s="107"/>
       <c r="B435" s="80"/>
       <c r="C435" s="80"/>
       <c r="D435" s="80"/>
       <c r="E435" s="80"/>
     </row>
     <row r="436" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="102"/>
-      <c r="B436" s="103"/>
+      <c r="A436" s="81"/>
+      <c r="B436" s="83"/>
       <c r="C436" s="77"/>
       <c r="D436" s="78"/>
-      <c r="E436" s="101"/>
+      <c r="E436" s="85"/>
     </row>
     <row r="437" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="80"/>
@@ -8827,11 +8827,11 @@
       <c r="E438" s="80"/>
     </row>
     <row r="439" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="102"/>
-      <c r="B439" s="103"/>
+      <c r="A439" s="81"/>
+      <c r="B439" s="83"/>
       <c r="C439" s="77"/>
       <c r="D439" s="78"/>
-      <c r="E439" s="101"/>
+      <c r="E439" s="85"/>
     </row>
     <row r="440" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="80"/>
@@ -8848,11 +8848,11 @@
       <c r="E441" s="80"/>
     </row>
     <row r="442" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="102"/>
-      <c r="B442" s="103"/>
+      <c r="A442" s="81"/>
+      <c r="B442" s="83"/>
       <c r="C442" s="77"/>
       <c r="D442" s="78"/>
-      <c r="E442" s="101"/>
+      <c r="E442" s="85"/>
     </row>
     <row r="443" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="80"/>
@@ -8869,11 +8869,11 @@
       <c r="E444" s="80"/>
     </row>
     <row r="445" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="102"/>
-      <c r="B445" s="103"/>
+      <c r="A445" s="81"/>
+      <c r="B445" s="83"/>
       <c r="C445" s="77"/>
       <c r="D445" s="78"/>
-      <c r="E445" s="101"/>
+      <c r="E445" s="85"/>
     </row>
     <row r="446" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="80"/>
@@ -8890,11 +8890,11 @@
       <c r="E447" s="80"/>
     </row>
     <row r="448" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="102"/>
-      <c r="B448" s="103"/>
+      <c r="A448" s="81"/>
+      <c r="B448" s="83"/>
       <c r="C448" s="77"/>
       <c r="D448" s="78"/>
-      <c r="E448" s="101"/>
+      <c r="E448" s="85"/>
     </row>
     <row r="449" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="80"/>
@@ -8911,11 +8911,11 @@
       <c r="E450" s="80"/>
     </row>
     <row r="451" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="102"/>
-      <c r="B451" s="103"/>
+      <c r="A451" s="81"/>
+      <c r="B451" s="83"/>
       <c r="C451" s="77"/>
       <c r="D451" s="78"/>
-      <c r="E451" s="101"/>
+      <c r="E451" s="85"/>
     </row>
     <row r="452" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="80"/>
@@ -8932,11 +8932,11 @@
       <c r="E453" s="80"/>
     </row>
     <row r="454" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="102"/>
-      <c r="B454" s="103"/>
+      <c r="A454" s="81"/>
+      <c r="B454" s="83"/>
       <c r="C454" s="77"/>
       <c r="D454" s="78"/>
-      <c r="E454" s="101"/>
+      <c r="E454" s="85"/>
     </row>
     <row r="455" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="80"/>
@@ -8953,11 +8953,11 @@
       <c r="E456" s="80"/>
     </row>
     <row r="457" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="102"/>
-      <c r="B457" s="103"/>
+      <c r="A457" s="81"/>
+      <c r="B457" s="83"/>
       <c r="C457" s="77"/>
       <c r="D457" s="78"/>
-      <c r="E457" s="101"/>
+      <c r="E457" s="85"/>
     </row>
     <row r="458" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="80"/>
@@ -8974,11 +8974,11 @@
       <c r="E459" s="80"/>
     </row>
     <row r="460" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="102"/>
-      <c r="B460" s="103"/>
+      <c r="A460" s="81"/>
+      <c r="B460" s="83"/>
       <c r="C460" s="77"/>
       <c r="D460" s="78"/>
-      <c r="E460" s="101"/>
+      <c r="E460" s="85"/>
     </row>
     <row r="461" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="80"/>
@@ -8995,11 +8995,11 @@
       <c r="E462" s="80"/>
     </row>
     <row r="463" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="102"/>
-      <c r="B463" s="103"/>
+      <c r="A463" s="81"/>
+      <c r="B463" s="83"/>
       <c r="C463" s="77"/>
       <c r="D463" s="78"/>
-      <c r="E463" s="101"/>
+      <c r="E463" s="85"/>
     </row>
     <row r="464" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="80"/>
@@ -9016,11 +9016,11 @@
       <c r="E465" s="80"/>
     </row>
     <row r="466" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="102"/>
-      <c r="B466" s="103"/>
+      <c r="A466" s="81"/>
+      <c r="B466" s="83"/>
       <c r="C466" s="77"/>
       <c r="D466" s="78"/>
-      <c r="E466" s="101"/>
+      <c r="E466" s="85"/>
     </row>
     <row r="467" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="80"/>
@@ -9037,11 +9037,11 @@
       <c r="E468" s="80"/>
     </row>
     <row r="469" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="102"/>
-      <c r="B469" s="103"/>
+      <c r="A469" s="81"/>
+      <c r="B469" s="83"/>
       <c r="C469" s="77"/>
       <c r="D469" s="78"/>
-      <c r="E469" s="101"/>
+      <c r="E469" s="85"/>
     </row>
     <row r="470" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="80"/>
@@ -9058,11 +9058,11 @@
       <c r="E471" s="80"/>
     </row>
     <row r="472" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="102"/>
-      <c r="B472" s="103"/>
+      <c r="A472" s="81"/>
+      <c r="B472" s="83"/>
       <c r="C472" s="77"/>
       <c r="D472" s="78"/>
-      <c r="E472" s="101"/>
+      <c r="E472" s="85"/>
     </row>
     <row r="473" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="80"/>
@@ -9079,11 +9079,11 @@
       <c r="E474" s="80"/>
     </row>
     <row r="475" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="102"/>
-      <c r="B475" s="103"/>
+      <c r="A475" s="81"/>
+      <c r="B475" s="83"/>
       <c r="C475" s="77"/>
       <c r="D475" s="78"/>
-      <c r="E475" s="101"/>
+      <c r="E475" s="85"/>
     </row>
     <row r="476" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="80"/>
@@ -9100,18 +9100,18 @@
       <c r="E477" s="80"/>
     </row>
     <row r="478" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="106"/>
+      <c r="A478" s="107"/>
       <c r="B478" s="80"/>
       <c r="C478" s="80"/>
       <c r="D478" s="80"/>
       <c r="E478" s="80"/>
     </row>
     <row r="479" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="102"/>
-      <c r="B479" s="103"/>
+      <c r="A479" s="81"/>
+      <c r="B479" s="83"/>
       <c r="C479" s="77"/>
       <c r="D479" s="78"/>
-      <c r="E479" s="101"/>
+      <c r="E479" s="85"/>
     </row>
     <row r="480" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="80"/>
@@ -9128,11 +9128,11 @@
       <c r="E481" s="80"/>
     </row>
     <row r="482" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="102"/>
-      <c r="B482" s="103"/>
+      <c r="A482" s="81"/>
+      <c r="B482" s="83"/>
       <c r="C482" s="77"/>
       <c r="D482" s="78"/>
-      <c r="E482" s="101"/>
+      <c r="E482" s="85"/>
     </row>
     <row r="483" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="80"/>
@@ -9149,11 +9149,11 @@
       <c r="E484" s="80"/>
     </row>
     <row r="485" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="102"/>
-      <c r="B485" s="103"/>
+      <c r="A485" s="81"/>
+      <c r="B485" s="83"/>
       <c r="C485" s="77"/>
       <c r="D485" s="78"/>
-      <c r="E485" s="101"/>
+      <c r="E485" s="85"/>
     </row>
     <row r="486" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="80"/>
@@ -9170,11 +9170,11 @@
       <c r="E487" s="80"/>
     </row>
     <row r="488" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="102"/>
-      <c r="B488" s="103"/>
+      <c r="A488" s="81"/>
+      <c r="B488" s="83"/>
       <c r="C488" s="77"/>
       <c r="D488" s="78"/>
-      <c r="E488" s="101"/>
+      <c r="E488" s="85"/>
     </row>
     <row r="489" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="80"/>
@@ -9191,11 +9191,11 @@
       <c r="E490" s="80"/>
     </row>
     <row r="491" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="102"/>
-      <c r="B491" s="103"/>
+      <c r="A491" s="81"/>
+      <c r="B491" s="83"/>
       <c r="C491" s="77"/>
       <c r="D491" s="78"/>
-      <c r="E491" s="101"/>
+      <c r="E491" s="85"/>
     </row>
     <row r="492" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="80"/>
@@ -9212,11 +9212,11 @@
       <c r="E493" s="80"/>
     </row>
     <row r="494" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="102"/>
-      <c r="B494" s="103"/>
+      <c r="A494" s="81"/>
+      <c r="B494" s="83"/>
       <c r="C494" s="77"/>
       <c r="D494" s="78"/>
-      <c r="E494" s="101"/>
+      <c r="E494" s="85"/>
     </row>
     <row r="495" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="80"/>
@@ -9233,11 +9233,11 @@
       <c r="E496" s="80"/>
     </row>
     <row r="497" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="102"/>
-      <c r="B497" s="103"/>
+      <c r="A497" s="81"/>
+      <c r="B497" s="83"/>
       <c r="C497" s="77"/>
       <c r="D497" s="78"/>
-      <c r="E497" s="101"/>
+      <c r="E497" s="85"/>
     </row>
     <row r="498" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="80"/>
@@ -9254,11 +9254,11 @@
       <c r="E499" s="80"/>
     </row>
     <row r="500" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="102"/>
-      <c r="B500" s="103"/>
+      <c r="A500" s="81"/>
+      <c r="B500" s="83"/>
       <c r="C500" s="77"/>
       <c r="D500" s="78"/>
-      <c r="E500" s="101"/>
+      <c r="E500" s="85"/>
     </row>
     <row r="501" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="80"/>
@@ -9275,11 +9275,11 @@
       <c r="E502" s="80"/>
     </row>
     <row r="503" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="102"/>
-      <c r="B503" s="103"/>
+      <c r="A503" s="81"/>
+      <c r="B503" s="83"/>
       <c r="C503" s="77"/>
       <c r="D503" s="78"/>
-      <c r="E503" s="101"/>
+      <c r="E503" s="85"/>
     </row>
     <row r="504" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="80"/>
@@ -9296,11 +9296,11 @@
       <c r="E505" s="80"/>
     </row>
     <row r="506" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="102"/>
-      <c r="B506" s="103"/>
+      <c r="A506" s="81"/>
+      <c r="B506" s="83"/>
       <c r="C506" s="77"/>
       <c r="D506" s="78"/>
-      <c r="E506" s="101"/>
+      <c r="E506" s="85"/>
     </row>
     <row r="507" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="80"/>
@@ -9317,11 +9317,11 @@
       <c r="E508" s="80"/>
     </row>
     <row r="509" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="102"/>
-      <c r="B509" s="103"/>
+      <c r="A509" s="81"/>
+      <c r="B509" s="83"/>
       <c r="C509" s="77"/>
       <c r="D509" s="78"/>
-      <c r="E509" s="101"/>
+      <c r="E509" s="85"/>
     </row>
     <row r="510" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="80"/>
@@ -9338,11 +9338,11 @@
       <c r="E511" s="80"/>
     </row>
     <row r="512" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="102"/>
-      <c r="B512" s="103"/>
+      <c r="A512" s="81"/>
+      <c r="B512" s="83"/>
       <c r="C512" s="77"/>
       <c r="D512" s="78"/>
-      <c r="E512" s="101"/>
+      <c r="E512" s="85"/>
     </row>
     <row r="513" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="80"/>
@@ -9359,11 +9359,11 @@
       <c r="E514" s="80"/>
     </row>
     <row r="515" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="102"/>
-      <c r="B515" s="103"/>
+      <c r="A515" s="81"/>
+      <c r="B515" s="83"/>
       <c r="C515" s="77"/>
       <c r="D515" s="78"/>
-      <c r="E515" s="101"/>
+      <c r="E515" s="85"/>
     </row>
     <row r="516" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="80"/>
@@ -9380,11 +9380,11 @@
       <c r="E517" s="80"/>
     </row>
     <row r="518" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="102"/>
-      <c r="B518" s="103"/>
+      <c r="A518" s="81"/>
+      <c r="B518" s="83"/>
       <c r="C518" s="77"/>
       <c r="D518" s="78"/>
-      <c r="E518" s="101"/>
+      <c r="E518" s="85"/>
     </row>
     <row r="519" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="80"/>
@@ -9401,18 +9401,18 @@
       <c r="E520" s="80"/>
     </row>
     <row r="521" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="106"/>
+      <c r="A521" s="107"/>
       <c r="B521" s="80"/>
       <c r="C521" s="80"/>
       <c r="D521" s="80"/>
       <c r="E521" s="80"/>
     </row>
     <row r="522" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="107"/>
-      <c r="B522" s="103"/>
+      <c r="A522" s="106"/>
+      <c r="B522" s="83"/>
       <c r="C522" s="77"/>
       <c r="D522" s="78"/>
-      <c r="E522" s="101"/>
+      <c r="E522" s="85"/>
     </row>
     <row r="523" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="80"/>
@@ -9429,11 +9429,11 @@
       <c r="E524" s="80"/>
     </row>
     <row r="525" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="102"/>
-      <c r="B525" s="103"/>
+      <c r="A525" s="81"/>
+      <c r="B525" s="83"/>
       <c r="C525" s="77"/>
       <c r="D525" s="78"/>
-      <c r="E525" s="101"/>
+      <c r="E525" s="85"/>
     </row>
     <row r="526" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="80"/>
@@ -10999,119 +10999,265 @@
     <row r="1049" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="424">
-    <mergeCell ref="A429:A431"/>
-    <mergeCell ref="B429:B431"/>
-    <mergeCell ref="A432:A434"/>
-    <mergeCell ref="A414:A416"/>
-    <mergeCell ref="B414:B416"/>
-    <mergeCell ref="A417:A419"/>
-    <mergeCell ref="B417:B419"/>
-    <mergeCell ref="A420:A422"/>
-    <mergeCell ref="B420:B422"/>
-    <mergeCell ref="A423:A425"/>
-    <mergeCell ref="B423:B425"/>
-    <mergeCell ref="A426:A428"/>
-    <mergeCell ref="B426:B428"/>
-    <mergeCell ref="E429:E431"/>
-    <mergeCell ref="E432:E434"/>
-    <mergeCell ref="E405:E407"/>
-    <mergeCell ref="E408:E410"/>
-    <mergeCell ref="E414:E416"/>
-    <mergeCell ref="E417:E419"/>
-    <mergeCell ref="E420:E422"/>
-    <mergeCell ref="E423:E425"/>
-    <mergeCell ref="E426:E428"/>
-    <mergeCell ref="D201:D203"/>
-    <mergeCell ref="E201:E203"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="D204:D206"/>
-    <mergeCell ref="E204:E206"/>
-    <mergeCell ref="C207:C209"/>
-    <mergeCell ref="D207:D209"/>
-    <mergeCell ref="E207:E209"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="E192:E194"/>
-    <mergeCell ref="E195:E197"/>
-    <mergeCell ref="C198:C200"/>
-    <mergeCell ref="D198:D200"/>
-    <mergeCell ref="E198:E200"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="F138:F140"/>
+    <mergeCell ref="E141:E143"/>
+    <mergeCell ref="E144:E146"/>
+    <mergeCell ref="E147:E149"/>
+    <mergeCell ref="E150:E152"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="E168:E170"/>
+    <mergeCell ref="E171:E173"/>
+    <mergeCell ref="E228:E230"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="E177:E179"/>
+    <mergeCell ref="E180:E182"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="E219:E221"/>
+    <mergeCell ref="E222:E224"/>
+    <mergeCell ref="E225:E227"/>
+    <mergeCell ref="E183:E185"/>
+    <mergeCell ref="E186:E188"/>
+    <mergeCell ref="E189:E191"/>
+    <mergeCell ref="E210:E212"/>
+    <mergeCell ref="E213:E215"/>
+    <mergeCell ref="E216:E218"/>
+    <mergeCell ref="A201:A203"/>
+    <mergeCell ref="A204:A206"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="A219:A221"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="D237:D239"/>
+    <mergeCell ref="E237:E239"/>
+    <mergeCell ref="D240:D242"/>
+    <mergeCell ref="E240:E242"/>
+    <mergeCell ref="D243:D245"/>
+    <mergeCell ref="E243:E245"/>
+    <mergeCell ref="B231:B233"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="B234:B236"/>
+    <mergeCell ref="C234:C236"/>
+    <mergeCell ref="D234:D236"/>
+    <mergeCell ref="E234:E236"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="B237:B239"/>
+    <mergeCell ref="C237:C239"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="C240:C242"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="C243:C245"/>
+    <mergeCell ref="D231:D233"/>
+    <mergeCell ref="E231:E233"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="C231:C233"/>
+    <mergeCell ref="B249:B251"/>
+    <mergeCell ref="C249:C251"/>
+    <mergeCell ref="D249:D251"/>
+    <mergeCell ref="E249:E251"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="B246:B248"/>
+    <mergeCell ref="C246:C248"/>
+    <mergeCell ref="D246:D248"/>
+    <mergeCell ref="E246:E248"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="E439:E441"/>
+    <mergeCell ref="E442:E444"/>
+    <mergeCell ref="A436:A438"/>
+    <mergeCell ref="B436:B438"/>
+    <mergeCell ref="E436:E438"/>
+    <mergeCell ref="A439:A441"/>
+    <mergeCell ref="B439:B441"/>
+    <mergeCell ref="A442:A444"/>
+    <mergeCell ref="B442:B444"/>
+    <mergeCell ref="A457:A459"/>
+    <mergeCell ref="B457:B459"/>
+    <mergeCell ref="A460:A462"/>
+    <mergeCell ref="B460:B462"/>
+    <mergeCell ref="E448:E450"/>
+    <mergeCell ref="E451:E453"/>
+    <mergeCell ref="A445:A447"/>
+    <mergeCell ref="B445:B447"/>
+    <mergeCell ref="E445:E447"/>
+    <mergeCell ref="A448:A450"/>
+    <mergeCell ref="B448:B450"/>
+    <mergeCell ref="A451:A453"/>
+    <mergeCell ref="B451:B453"/>
+    <mergeCell ref="A383:A385"/>
+    <mergeCell ref="B383:B385"/>
+    <mergeCell ref="A386:A388"/>
+    <mergeCell ref="B386:B388"/>
+    <mergeCell ref="B389:B391"/>
+    <mergeCell ref="B411:B413"/>
+    <mergeCell ref="E411:E413"/>
+    <mergeCell ref="B392:B394"/>
+    <mergeCell ref="B395:B397"/>
+    <mergeCell ref="B398:B400"/>
+    <mergeCell ref="B401:B403"/>
+    <mergeCell ref="A404:E404"/>
+    <mergeCell ref="B405:B407"/>
+    <mergeCell ref="B408:B410"/>
+    <mergeCell ref="A389:A391"/>
+    <mergeCell ref="A392:A394"/>
+    <mergeCell ref="A395:A397"/>
+    <mergeCell ref="A398:A400"/>
+    <mergeCell ref="A401:A403"/>
+    <mergeCell ref="A405:A407"/>
+    <mergeCell ref="A408:A410"/>
+    <mergeCell ref="A411:A413"/>
+    <mergeCell ref="E518:E520"/>
+    <mergeCell ref="B432:B434"/>
+    <mergeCell ref="A435:E435"/>
+    <mergeCell ref="A472:A474"/>
+    <mergeCell ref="B472:B474"/>
+    <mergeCell ref="E472:E474"/>
+    <mergeCell ref="A475:A477"/>
+    <mergeCell ref="B475:B477"/>
+    <mergeCell ref="E475:E477"/>
+    <mergeCell ref="A478:E478"/>
+    <mergeCell ref="E466:E468"/>
+    <mergeCell ref="E469:E471"/>
+    <mergeCell ref="A463:A465"/>
+    <mergeCell ref="B463:B465"/>
+    <mergeCell ref="E463:E465"/>
+    <mergeCell ref="A466:A468"/>
+    <mergeCell ref="B466:B468"/>
+    <mergeCell ref="A469:A471"/>
+    <mergeCell ref="B469:B471"/>
+    <mergeCell ref="E457:E459"/>
+    <mergeCell ref="E460:E462"/>
+    <mergeCell ref="A454:A456"/>
+    <mergeCell ref="B454:B456"/>
+    <mergeCell ref="E454:E456"/>
+    <mergeCell ref="A491:A493"/>
+    <mergeCell ref="B491:B493"/>
+    <mergeCell ref="A494:A496"/>
+    <mergeCell ref="B494:B496"/>
+    <mergeCell ref="B497:B499"/>
+    <mergeCell ref="E482:E484"/>
+    <mergeCell ref="E485:E487"/>
+    <mergeCell ref="E488:E490"/>
+    <mergeCell ref="E491:E493"/>
+    <mergeCell ref="E494:E496"/>
+    <mergeCell ref="E497:E499"/>
+    <mergeCell ref="A479:A481"/>
+    <mergeCell ref="B479:B481"/>
+    <mergeCell ref="E479:E481"/>
+    <mergeCell ref="A482:A484"/>
+    <mergeCell ref="B482:B484"/>
+    <mergeCell ref="A485:A487"/>
+    <mergeCell ref="B485:B487"/>
+    <mergeCell ref="A488:A490"/>
+    <mergeCell ref="B488:B490"/>
+    <mergeCell ref="A522:A524"/>
+    <mergeCell ref="A525:A527"/>
+    <mergeCell ref="A497:A499"/>
+    <mergeCell ref="A500:A502"/>
+    <mergeCell ref="A503:A505"/>
+    <mergeCell ref="A506:A508"/>
+    <mergeCell ref="A509:A511"/>
+    <mergeCell ref="A512:A514"/>
+    <mergeCell ref="A515:A517"/>
+    <mergeCell ref="A521:E521"/>
+    <mergeCell ref="E500:E502"/>
+    <mergeCell ref="A518:A520"/>
+    <mergeCell ref="B500:B502"/>
+    <mergeCell ref="B503:B505"/>
+    <mergeCell ref="B506:B508"/>
+    <mergeCell ref="B509:B511"/>
+    <mergeCell ref="B512:B514"/>
+    <mergeCell ref="B515:B517"/>
+    <mergeCell ref="B518:B520"/>
+    <mergeCell ref="E503:E505"/>
+    <mergeCell ref="E506:E508"/>
+    <mergeCell ref="E509:E511"/>
+    <mergeCell ref="E512:E514"/>
+    <mergeCell ref="E515:E517"/>
+    <mergeCell ref="B522:B524"/>
+    <mergeCell ref="B525:B527"/>
+    <mergeCell ref="E522:E524"/>
+    <mergeCell ref="E525:E527"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E383:E385"/>
+    <mergeCell ref="E386:E388"/>
+    <mergeCell ref="E389:E391"/>
+    <mergeCell ref="E392:E394"/>
+    <mergeCell ref="E395:E397"/>
+    <mergeCell ref="E398:E400"/>
+    <mergeCell ref="E401:E403"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="E50:E52"/>
     <mergeCell ref="E53:E55"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:E4"/>
@@ -11136,274 +11282,48 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B522:B524"/>
-    <mergeCell ref="B525:B527"/>
-    <mergeCell ref="E522:E524"/>
-    <mergeCell ref="E525:E527"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E383:E385"/>
-    <mergeCell ref="E386:E388"/>
-    <mergeCell ref="E389:E391"/>
-    <mergeCell ref="E392:E394"/>
-    <mergeCell ref="E395:E397"/>
-    <mergeCell ref="E398:E400"/>
-    <mergeCell ref="E401:E403"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="A522:A524"/>
-    <mergeCell ref="A525:A527"/>
-    <mergeCell ref="A497:A499"/>
-    <mergeCell ref="A500:A502"/>
-    <mergeCell ref="A503:A505"/>
-    <mergeCell ref="A506:A508"/>
-    <mergeCell ref="A509:A511"/>
-    <mergeCell ref="A512:A514"/>
-    <mergeCell ref="A515:A517"/>
-    <mergeCell ref="A521:E521"/>
-    <mergeCell ref="A479:A481"/>
-    <mergeCell ref="B479:B481"/>
-    <mergeCell ref="E479:E481"/>
-    <mergeCell ref="A482:A484"/>
-    <mergeCell ref="B482:B484"/>
-    <mergeCell ref="A485:A487"/>
-    <mergeCell ref="B485:B487"/>
-    <mergeCell ref="A488:A490"/>
-    <mergeCell ref="B488:B490"/>
-    <mergeCell ref="A491:A493"/>
-    <mergeCell ref="B491:B493"/>
-    <mergeCell ref="A494:A496"/>
-    <mergeCell ref="B494:B496"/>
-    <mergeCell ref="B497:B499"/>
-    <mergeCell ref="E482:E484"/>
-    <mergeCell ref="E485:E487"/>
-    <mergeCell ref="E488:E490"/>
-    <mergeCell ref="E491:E493"/>
-    <mergeCell ref="E494:E496"/>
-    <mergeCell ref="E497:E499"/>
-    <mergeCell ref="E500:E502"/>
-    <mergeCell ref="A518:A520"/>
-    <mergeCell ref="B500:B502"/>
-    <mergeCell ref="B503:B505"/>
-    <mergeCell ref="B506:B508"/>
-    <mergeCell ref="B509:B511"/>
-    <mergeCell ref="B512:B514"/>
-    <mergeCell ref="B515:B517"/>
-    <mergeCell ref="B518:B520"/>
-    <mergeCell ref="E503:E505"/>
-    <mergeCell ref="E506:E508"/>
-    <mergeCell ref="E509:E511"/>
-    <mergeCell ref="E512:E514"/>
-    <mergeCell ref="E515:E517"/>
-    <mergeCell ref="E518:E520"/>
-    <mergeCell ref="B432:B434"/>
-    <mergeCell ref="A435:E435"/>
-    <mergeCell ref="A472:A474"/>
-    <mergeCell ref="B472:B474"/>
-    <mergeCell ref="E472:E474"/>
-    <mergeCell ref="A475:A477"/>
-    <mergeCell ref="B475:B477"/>
-    <mergeCell ref="E475:E477"/>
-    <mergeCell ref="A478:E478"/>
-    <mergeCell ref="A383:A385"/>
-    <mergeCell ref="B383:B385"/>
-    <mergeCell ref="A386:A388"/>
-    <mergeCell ref="B386:B388"/>
-    <mergeCell ref="B389:B391"/>
-    <mergeCell ref="B411:B413"/>
-    <mergeCell ref="E411:E413"/>
-    <mergeCell ref="B392:B394"/>
-    <mergeCell ref="B395:B397"/>
-    <mergeCell ref="B398:B400"/>
-    <mergeCell ref="B401:B403"/>
-    <mergeCell ref="A404:E404"/>
-    <mergeCell ref="B405:B407"/>
-    <mergeCell ref="B408:B410"/>
-    <mergeCell ref="A389:A391"/>
-    <mergeCell ref="A392:A394"/>
-    <mergeCell ref="A395:A397"/>
-    <mergeCell ref="A398:A400"/>
-    <mergeCell ref="A401:A403"/>
-    <mergeCell ref="A405:A407"/>
-    <mergeCell ref="A408:A410"/>
-    <mergeCell ref="A411:A413"/>
-    <mergeCell ref="E466:E468"/>
-    <mergeCell ref="E469:E471"/>
-    <mergeCell ref="A463:A465"/>
-    <mergeCell ref="B463:B465"/>
-    <mergeCell ref="E463:E465"/>
-    <mergeCell ref="A466:A468"/>
-    <mergeCell ref="B466:B468"/>
-    <mergeCell ref="A469:A471"/>
-    <mergeCell ref="B469:B471"/>
-    <mergeCell ref="E457:E459"/>
-    <mergeCell ref="E460:E462"/>
-    <mergeCell ref="A454:A456"/>
-    <mergeCell ref="B454:B456"/>
-    <mergeCell ref="E454:E456"/>
-    <mergeCell ref="A457:A459"/>
-    <mergeCell ref="B457:B459"/>
-    <mergeCell ref="A460:A462"/>
-    <mergeCell ref="B460:B462"/>
-    <mergeCell ref="E448:E450"/>
-    <mergeCell ref="E451:E453"/>
-    <mergeCell ref="A445:A447"/>
-    <mergeCell ref="B445:B447"/>
-    <mergeCell ref="E445:E447"/>
-    <mergeCell ref="A448:A450"/>
-    <mergeCell ref="B448:B450"/>
-    <mergeCell ref="A451:A453"/>
-    <mergeCell ref="B451:B453"/>
-    <mergeCell ref="E439:E441"/>
-    <mergeCell ref="E442:E444"/>
-    <mergeCell ref="A436:A438"/>
-    <mergeCell ref="B436:B438"/>
-    <mergeCell ref="E436:E438"/>
-    <mergeCell ref="A439:A441"/>
-    <mergeCell ref="B439:B441"/>
-    <mergeCell ref="A442:A444"/>
-    <mergeCell ref="B442:B444"/>
-    <mergeCell ref="B249:B251"/>
-    <mergeCell ref="C249:C251"/>
-    <mergeCell ref="D249:D251"/>
-    <mergeCell ref="E249:E251"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="B246:B248"/>
-    <mergeCell ref="C246:C248"/>
-    <mergeCell ref="D246:D248"/>
-    <mergeCell ref="E246:E248"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="D237:D239"/>
-    <mergeCell ref="E237:E239"/>
-    <mergeCell ref="D240:D242"/>
-    <mergeCell ref="E240:E242"/>
-    <mergeCell ref="D243:D245"/>
-    <mergeCell ref="E243:E245"/>
-    <mergeCell ref="B231:B233"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="B234:B236"/>
-    <mergeCell ref="C234:C236"/>
-    <mergeCell ref="D234:D236"/>
-    <mergeCell ref="E234:E236"/>
-    <mergeCell ref="A237:A239"/>
-    <mergeCell ref="B237:B239"/>
-    <mergeCell ref="C237:C239"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="B240:B242"/>
-    <mergeCell ref="C240:C242"/>
-    <mergeCell ref="B243:B245"/>
-    <mergeCell ref="C243:C245"/>
-    <mergeCell ref="D231:D233"/>
-    <mergeCell ref="E231:E233"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="A207:A209"/>
-    <mergeCell ref="A210:A212"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="B213:B215"/>
-    <mergeCell ref="A216:A218"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="A231:A233"/>
-    <mergeCell ref="C231:C233"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="A198:A200"/>
-    <mergeCell ref="A201:A203"/>
-    <mergeCell ref="A204:A206"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B204:B206"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="E219:E221"/>
-    <mergeCell ref="E222:E224"/>
-    <mergeCell ref="E225:E227"/>
-    <mergeCell ref="E228:E230"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="E177:E179"/>
-    <mergeCell ref="E180:E182"/>
-    <mergeCell ref="E183:E185"/>
-    <mergeCell ref="E186:E188"/>
-    <mergeCell ref="E189:E191"/>
-    <mergeCell ref="E210:E212"/>
-    <mergeCell ref="E213:E215"/>
-    <mergeCell ref="E216:E218"/>
-    <mergeCell ref="E147:E149"/>
-    <mergeCell ref="E150:E152"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="E162:E164"/>
-    <mergeCell ref="E165:E167"/>
-    <mergeCell ref="E168:E170"/>
-    <mergeCell ref="E171:E173"/>
-    <mergeCell ref="E126:E128"/>
-    <mergeCell ref="E129:E131"/>
-    <mergeCell ref="F134:F136"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="F138:F140"/>
-    <mergeCell ref="E141:E143"/>
-    <mergeCell ref="E144:E146"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B95:B97"/>
     <mergeCell ref="E107:E109"/>
     <mergeCell ref="E110:E112"/>
     <mergeCell ref="C111:C112"/>
@@ -11417,12 +11337,92 @@
     <mergeCell ref="E80:E82"/>
     <mergeCell ref="E83:E85"/>
     <mergeCell ref="E86:E88"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="E192:E194"/>
+    <mergeCell ref="E195:E197"/>
+    <mergeCell ref="C198:C200"/>
+    <mergeCell ref="D198:D200"/>
+    <mergeCell ref="E198:E200"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="D201:D203"/>
+    <mergeCell ref="E201:E203"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="D204:D206"/>
+    <mergeCell ref="E204:E206"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="D207:D209"/>
+    <mergeCell ref="E207:E209"/>
+    <mergeCell ref="E429:E431"/>
+    <mergeCell ref="E432:E434"/>
+    <mergeCell ref="E405:E407"/>
+    <mergeCell ref="E408:E410"/>
+    <mergeCell ref="E414:E416"/>
+    <mergeCell ref="E417:E419"/>
+    <mergeCell ref="E420:E422"/>
+    <mergeCell ref="E423:E425"/>
+    <mergeCell ref="E426:E428"/>
+    <mergeCell ref="A429:A431"/>
+    <mergeCell ref="B429:B431"/>
+    <mergeCell ref="A432:A434"/>
+    <mergeCell ref="A414:A416"/>
+    <mergeCell ref="B414:B416"/>
+    <mergeCell ref="A417:A419"/>
+    <mergeCell ref="B417:B419"/>
+    <mergeCell ref="A420:A422"/>
+    <mergeCell ref="B420:B422"/>
+    <mergeCell ref="A423:A425"/>
+    <mergeCell ref="B423:B425"/>
+    <mergeCell ref="A426:A428"/>
+    <mergeCell ref="B426:B428"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="D5:D23 D26:D38 D41:D61 D63:D68 D70:D75 D77:D111 D113:D121 D123:D198 D201 D204 D207 D210:D231 D234 D237 D240 D243 D246 D249 D340:D403 D405:D434 D436:D477 D479:D520 D522:D1040" xr:uid="{00000000-0002-0000-0100-000000000000}">
